--- a/BackTest/2019-10-18 BackTest LINK.xlsx
+++ b/BackTest/2019-10-18 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>44</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-8.571428571428571</v>
+      </c>
       <c r="L12" t="n">
         <v>2882.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>47</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>8.571428571428571</v>
+      </c>
       <c r="L13" t="n">
         <v>2882.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>47</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>31.03448275862069</v>
+      </c>
       <c r="L14" t="n">
         <v>2882.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>48</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-29.41176470588236</v>
+      </c>
       <c r="L15" t="n">
         <v>2883.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>59</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>21.42857142857143</v>
+      </c>
       <c r="L16" t="n">
         <v>2883.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>66</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>2883.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>66</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9.67741935483871</v>
+      </c>
       <c r="L18" t="n">
         <v>2883.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>70</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L19" t="n">
         <v>2883.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>73</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>2883</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>73</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-3.448275862068965</v>
+      </c>
       <c r="L21" t="n">
         <v>2882.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>75</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-7.142857142857142</v>
+      </c>
       <c r="L22" t="n">
         <v>2882.4</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.477611940298507</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L23" t="n">
         <v>2882.1</v>
@@ -1466,7 +1488,7 @@
         <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L24" t="n">
         <v>2881.8</v>
@@ -1515,7 +1537,7 @@
         <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.03030303030303</v>
+        <v>-84</v>
       </c>
       <c r="L25" t="n">
         <v>2880.8</v>
@@ -1564,7 +1586,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="n">
-        <v>-25.92592592592592</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L26" t="n">
         <v>2878.8</v>
@@ -1613,7 +1635,7 @@
         <v>85</v>
       </c>
       <c r="K27" t="n">
-        <v>-25.92592592592592</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L27" t="n">
         <v>2877.5</v>
@@ -1662,7 +1684,7 @@
         <v>87</v>
       </c>
       <c r="K28" t="n">
-        <v>-27.27272727272727</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L28" t="n">
         <v>2876</v>
@@ -1711,7 +1733,7 @@
         <v>87</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.07692307692308</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L29" t="n">
         <v>2874.9</v>
@@ -1760,7 +1782,7 @@
         <v>88</v>
       </c>
       <c r="K30" t="n">
-        <v>-25.49019607843137</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L30" t="n">
         <v>2874.2</v>
@@ -1809,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="K31" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L31" t="n">
         <v>2873.4</v>
@@ -1860,7 +1882,7 @@
         <v>89</v>
       </c>
       <c r="K32" t="n">
-        <v>-20</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L32" t="n">
         <v>2872.4</v>
@@ -1911,7 +1933,7 @@
         <v>89</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.57142857142857</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L33" t="n">
         <v>2871.5</v>
@@ -1962,7 +1984,7 @@
         <v>99</v>
       </c>
       <c r="K34" t="n">
-        <v>-42.30769230769231</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>2869.6</v>
@@ -2013,7 +2035,7 @@
         <v>101</v>
       </c>
       <c r="K35" t="n">
-        <v>-43.39622641509434</v>
+        <v>-87.5</v>
       </c>
       <c r="L35" t="n">
         <v>2868.3</v>
@@ -2064,7 +2086,7 @@
         <v>111</v>
       </c>
       <c r="K36" t="n">
-        <v>-46.15384615384615</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L36" t="n">
         <v>2867.9</v>
@@ -2115,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="K37" t="n">
-        <v>-39.1304347826087</v>
+        <v>-12</v>
       </c>
       <c r="L37" t="n">
         <v>2867.4</v>
@@ -2166,7 +2188,7 @@
         <v>113</v>
       </c>
       <c r="K38" t="n">
-        <v>-36.17021276595745</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L38" t="n">
         <v>2867.2</v>
@@ -2217,7 +2239,7 @@
         <v>114</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L39" t="n">
         <v>2867.1</v>
@@ -2268,7 +2290,7 @@
         <v>118</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.11111111111111</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L40" t="n">
         <v>2867.3</v>
@@ -2319,7 +2341,7 @@
         <v>124</v>
       </c>
       <c r="K41" t="n">
-        <v>1.96078431372549</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L41" t="n">
         <v>2868.2</v>
@@ -2370,7 +2392,7 @@
         <v>124</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.040816326530612</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L42" t="n">
         <v>2869.1</v>
@@ -2421,7 +2443,7 @@
         <v>131</v>
       </c>
       <c r="K43" t="n">
-        <v>12.72727272727273</v>
+        <v>81.25</v>
       </c>
       <c r="L43" t="n">
         <v>2870.7</v>
@@ -2472,7 +2494,7 @@
         <v>131</v>
       </c>
       <c r="K44" t="n">
-        <v>12.72727272727273</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>2873.3</v>
@@ -2523,7 +2545,7 @@
         <v>137</v>
       </c>
       <c r="K45" t="n">
-        <v>16.9811320754717</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L45" t="n">
         <v>2875.5</v>
@@ -2574,7 +2596,7 @@
         <v>142</v>
       </c>
       <c r="K46" t="n">
-        <v>5.263157894736842</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L46" t="n">
         <v>2876.2</v>
@@ -2625,7 +2647,7 @@
         <v>143</v>
       </c>
       <c r="K47" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>2876.9</v>
@@ -2676,7 +2698,7 @@
         <v>143</v>
       </c>
       <c r="K48" t="n">
-        <v>7.142857142857142</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L48" t="n">
         <v>2877.5</v>
@@ -2727,7 +2749,7 @@
         <v>148</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.639344262295082</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>2877.5</v>
@@ -2778,7 +2800,7 @@
         <v>176</v>
       </c>
       <c r="K50" t="n">
-        <v>-34.09090909090909</v>
+        <v>-73.07692307692307</v>
       </c>
       <c r="L50" t="n">
         <v>2874.3</v>
@@ -2829,7 +2851,7 @@
         <v>196</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.411214953271028</v>
+        <v>-25</v>
       </c>
       <c r="L51" t="n">
         <v>2872.5</v>
@@ -2880,7 +2902,7 @@
         <v>217</v>
       </c>
       <c r="K52" t="n">
-        <v>-23.4375</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L52" t="n">
         <v>2868.6</v>
@@ -2931,7 +2953,7 @@
         <v>227</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.49275362318841</v>
+        <v>-37.5</v>
       </c>
       <c r="L53" t="n">
         <v>2865</v>
@@ -2982,7 +3004,7 @@
         <v>227</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.8125</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>2861.4</v>
@@ -3033,7 +3055,7 @@
         <v>234</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.7518796992481203</v>
+        <v>-19.56521739130435</v>
       </c>
       <c r="L55" t="n">
         <v>2859.1</v>
@@ -3084,7 +3106,7 @@
         <v>237</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>-21.27659574468085</v>
       </c>
       <c r="L56" t="n">
         <v>2857</v>
@@ -3135,7 +3157,7 @@
         <v>245</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.759398496240602</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L57" t="n">
         <v>2855.8</v>
@@ -3186,7 +3208,7 @@
         <v>252</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.352517985611511</v>
+        <v>-13.46153846153846</v>
       </c>
       <c r="L58" t="n">
         <v>2853.9</v>
@@ -3237,7 +3259,7 @@
         <v>253</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.79136690647482</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="L59" t="n">
         <v>2852.4</v>
@@ -3288,7 +3310,7 @@
         <v>256</v>
       </c>
       <c r="K60" t="n">
-        <v>-15.94202898550724</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L60" t="n">
         <v>2853.4</v>
@@ -3339,7 +3361,7 @@
         <v>260</v>
       </c>
       <c r="K61" t="n">
-        <v>-17.64705882352941</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L61" t="n">
         <v>2852.8</v>
@@ -3390,7 +3412,7 @@
         <v>264</v>
       </c>
       <c r="K62" t="n">
-        <v>-20</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L62" t="n">
         <v>2853.9</v>
@@ -3441,7 +3463,7 @@
         <v>283</v>
       </c>
       <c r="K63" t="n">
-        <v>-35.52631578947368</v>
+        <v>-32.14285714285715</v>
       </c>
       <c r="L63" t="n">
         <v>2852.1</v>
@@ -3492,7 +3514,7 @@
         <v>285</v>
       </c>
       <c r="K64" t="n">
-        <v>-36.36363636363637</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L64" t="n">
         <v>2850.1</v>
@@ -3543,7 +3565,7 @@
         <v>289</v>
       </c>
       <c r="K65" t="n">
-        <v>-35.52631578947368</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L65" t="n">
         <v>2847</v>
@@ -3594,7 +3616,7 @@
         <v>297</v>
       </c>
       <c r="K66" t="n">
-        <v>-26.45161290322581</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L66" t="n">
         <v>2845</v>
@@ -3645,7 +3667,7 @@
         <v>297</v>
       </c>
       <c r="K67" t="n">
-        <v>-25.97402597402597</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>2842.2</v>
@@ -3696,7 +3718,7 @@
         <v>297</v>
       </c>
       <c r="K68" t="n">
-        <v>-25.97402597402597</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L68" t="n">
         <v>2840.1</v>
@@ -3747,7 +3769,7 @@
         <v>301</v>
       </c>
       <c r="K69" t="n">
-        <v>-20.26143790849673</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L69" t="n">
         <v>2838.5</v>
@@ -3798,7 +3820,7 @@
         <v>310</v>
       </c>
       <c r="K70" t="n">
-        <v>4.477611940298507</v>
+        <v>-16</v>
       </c>
       <c r="L70" t="n">
         <v>2838.1</v>
@@ -3849,7 +3871,7 @@
         <v>310</v>
       </c>
       <c r="K71" t="n">
-        <v>-12.28070175438596</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L71" t="n">
         <v>2837.3</v>
@@ -3900,7 +3922,7 @@
         <v>318</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.9900990099009901</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>2836.1</v>
@@ -3951,7 +3973,7 @@
         <v>328</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.9900990099009901</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L73" t="n">
         <v>2837.8</v>
@@ -4002,7 +4024,7 @@
         <v>328</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.9900990099009901</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L74" t="n">
         <v>2839.7</v>
@@ -4053,7 +4075,7 @@
         <v>331</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.154639175257731</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L75" t="n">
         <v>2842.3</v>
@@ -4104,7 +4126,7 @@
         <v>351</v>
       </c>
       <c r="K76" t="n">
-        <v>-19.29824561403509</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L76" t="n">
         <v>2842.1</v>
@@ -4155,7 +4177,7 @@
         <v>365</v>
       </c>
       <c r="K77" t="n">
-        <v>-13.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L77" t="n">
         <v>2843.3</v>
@@ -4206,7 +4228,7 @@
         <v>367</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.565217391304348</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L78" t="n">
         <v>2844.3</v>
@@ -4257,7 +4279,7 @@
         <v>377</v>
       </c>
       <c r="K79" t="n">
-        <v>-16.12903225806452</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L79" t="n">
         <v>2843.9</v>
@@ -4308,7 +4330,7 @@
         <v>377</v>
       </c>
       <c r="K80" t="n">
-        <v>-14.0495867768595</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L80" t="n">
         <v>2842.6</v>
@@ -4359,7 +4381,7 @@
         <v>379</v>
       </c>
       <c r="K81" t="n">
-        <v>-15.96638655462185</v>
+        <v>-4.918032786885246</v>
       </c>
       <c r="L81" t="n">
         <v>2841.5</v>
@@ -4410,7 +4432,7 @@
         <v>379</v>
       </c>
       <c r="K82" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L82" t="n">
         <v>2841.2</v>
@@ -4461,7 +4483,7 @@
         <v>380</v>
       </c>
       <c r="K83" t="n">
-        <v>5.154639175257731</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L83" t="n">
         <v>2840</v>
@@ -4512,7 +4534,7 @@
         <v>385</v>
       </c>
       <c r="K84" t="n">
-        <v>12</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L84" t="n">
         <v>2839.3</v>
@@ -4563,7 +4585,7 @@
         <v>390</v>
       </c>
       <c r="K85" t="n">
-        <v>10.89108910891089</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L85" t="n">
         <v>2837.8</v>
@@ -4614,7 +4636,7 @@
         <v>393</v>
       </c>
       <c r="K86" t="n">
-        <v>6.25</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>2838.6</v>
@@ -4665,7 +4687,7 @@
         <v>393</v>
       </c>
       <c r="K87" t="n">
-        <v>6.25</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L87" t="n">
         <v>2838</v>
@@ -4716,7 +4738,7 @@
         <v>398</v>
       </c>
       <c r="K88" t="n">
-        <v>10.89108910891089</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L88" t="n">
         <v>2838.1</v>
@@ -4767,7 +4789,7 @@
         <v>399</v>
       </c>
       <c r="K89" t="n">
-        <v>6.122448979591836</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L89" t="n">
         <v>2839.1</v>
@@ -4818,7 +4840,7 @@
         <v>399</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.370786516853932</v>
+        <v>40</v>
       </c>
       <c r="L90" t="n">
         <v>2840.1</v>
@@ -4869,7 +4891,7 @@
         <v>400</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.222222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L91" t="n">
         <v>2841</v>
@@ -4920,7 +4942,7 @@
         <v>401</v>
       </c>
       <c r="K92" t="n">
-        <v>6.024096385542169</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>2841.8</v>
@@ -4971,7 +4993,7 @@
         <v>401</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.849315068493151</v>
+        <v>12.5</v>
       </c>
       <c r="L93" t="n">
         <v>2842.5</v>
@@ -5022,7 +5044,7 @@
         <v>401</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.849315068493151</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L94" t="n">
         <v>2842.7</v>
@@ -5073,7 +5095,7 @@
         <v>405</v>
       </c>
       <c r="K95" t="n">
-        <v>-16.21621621621622</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>2843</v>
@@ -5124,7 +5146,7 @@
         <v>405</v>
       </c>
       <c r="K96" t="n">
-        <v>14.81481481481481</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>2843</v>
@@ -5175,7 +5197,7 @@
         <v>406</v>
       </c>
       <c r="K97" t="n">
-        <v>-17.07317073170732</v>
+        <v>-75</v>
       </c>
       <c r="L97" t="n">
         <v>2842.9</v>
@@ -5226,7 +5248,7 @@
         <v>408</v>
       </c>
       <c r="K98" t="n">
-        <v>-17.07317073170732</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L98" t="n">
         <v>2842.1</v>
@@ -5277,7 +5299,7 @@
         <v>409</v>
       </c>
       <c r="K99" t="n">
-        <v>12.5</v>
+        <v>-60</v>
       </c>
       <c r="L99" t="n">
         <v>2841.5</v>
@@ -5328,7 +5350,7 @@
         <v>409</v>
       </c>
       <c r="K100" t="n">
-        <v>12.5</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L100" t="n">
         <v>2840.9</v>
@@ -5379,7 +5401,7 @@
         <v>409</v>
       </c>
       <c r="K101" t="n">
-        <v>6.666666666666667</v>
+        <v>-75</v>
       </c>
       <c r="L101" t="n">
         <v>2840.2</v>
@@ -5430,7 +5452,7 @@
         <v>411</v>
       </c>
       <c r="K102" t="n">
-        <v>12.5</v>
+        <v>-40</v>
       </c>
       <c r="L102" t="n">
         <v>2839.8</v>
@@ -5481,7 +5503,7 @@
         <v>415</v>
       </c>
       <c r="K103" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>2839.8</v>
@@ -5532,7 +5554,7 @@
         <v>421</v>
       </c>
       <c r="K104" t="n">
-        <v>22.22222222222222</v>
+        <v>62.5</v>
       </c>
       <c r="L104" t="n">
         <v>2840.4</v>
@@ -5583,7 +5605,7 @@
         <v>433</v>
       </c>
       <c r="K105" t="n">
-        <v>58.13953488372093</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>2842.6</v>
@@ -5634,7 +5656,7 @@
         <v>442</v>
       </c>
       <c r="K106" t="n">
-        <v>26.53061224489796</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L106" t="n">
         <v>2843.9</v>
@@ -5685,7 +5707,7 @@
         <v>457</v>
       </c>
       <c r="K107" t="n">
-        <v>43.75</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L107" t="n">
         <v>2846.8</v>
@@ -5736,7 +5758,7 @@
         <v>459</v>
       </c>
       <c r="K108" t="n">
-        <v>40.98360655737705</v>
+        <v>64</v>
       </c>
       <c r="L108" t="n">
         <v>2850.1</v>
@@ -5787,7 +5809,7 @@
         <v>460</v>
       </c>
       <c r="K109" t="n">
-        <v>40.98360655737705</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="L109" t="n">
         <v>2853.2</v>
@@ -5838,7 +5860,7 @@
         <v>470</v>
       </c>
       <c r="K110" t="n">
-        <v>49.29577464788733</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="L110" t="n">
         <v>2857.3</v>
@@ -5889,7 +5911,7 @@
         <v>471</v>
       </c>
       <c r="K111" t="n">
-        <v>46.47887323943662</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>2861.3</v>
@@ -5940,7 +5962,7 @@
         <v>472</v>
       </c>
       <c r="K112" t="n">
-        <v>46.47887323943662</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L112" t="n">
         <v>2865</v>
@@ -5991,7 +6013,7 @@
         <v>476</v>
       </c>
       <c r="K113" t="n">
-        <v>49.33333333333334</v>
+        <v>56.36363636363636</v>
       </c>
       <c r="L113" t="n">
         <v>2868.7</v>
@@ -6042,7 +6064,7 @@
         <v>476</v>
       </c>
       <c r="K114" t="n">
-        <v>49.33333333333334</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L114" t="n">
         <v>2871.8</v>
@@ -6093,7 +6115,7 @@
         <v>487</v>
       </c>
       <c r="K115" t="n">
-        <v>36.58536585365854</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L115" t="n">
         <v>2872.6</v>
@@ -6144,7 +6166,7 @@
         <v>491</v>
       </c>
       <c r="K116" t="n">
-        <v>30.23255813953488</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L116" t="n">
         <v>2873.9</v>
@@ -6195,7 +6217,7 @@
         <v>496</v>
       </c>
       <c r="K117" t="n">
-        <v>24.44444444444444</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L117" t="n">
         <v>2873.2</v>
@@ -6246,7 +6268,7 @@
         <v>506</v>
       </c>
       <c r="K118" t="n">
-        <v>34.69387755102041</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L118" t="n">
         <v>2873.3</v>
@@ -6297,7 +6319,7 @@
         <v>513</v>
       </c>
       <c r="K119" t="n">
-        <v>25</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L119" t="n">
         <v>2872.8</v>
@@ -6348,7 +6370,7 @@
         <v>520</v>
       </c>
       <c r="K120" t="n">
-        <v>29.72972972972973</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L120" t="n">
         <v>2872</v>
@@ -6399,7 +6421,7 @@
         <v>521</v>
       </c>
       <c r="K121" t="n">
-        <v>28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>2871.2</v>
@@ -6450,7 +6472,7 @@
         <v>526</v>
       </c>
       <c r="K122" t="n">
-        <v>30.43478260869566</v>
+        <v>-12</v>
       </c>
       <c r="L122" t="n">
         <v>2871</v>
@@ -6501,7 +6523,7 @@
         <v>532</v>
       </c>
       <c r="K123" t="n">
-        <v>31.62393162393162</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>2871</v>
@@ -6552,7 +6574,7 @@
         <v>537</v>
       </c>
       <c r="K124" t="n">
-        <v>31.03448275862069</v>
+        <v>32</v>
       </c>
       <c r="L124" t="n">
         <v>2871.5</v>
@@ -6603,7 +6625,7 @@
         <v>543</v>
       </c>
       <c r="K125" t="n">
-        <v>16.36363636363636</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L125" t="n">
         <v>2872.5</v>
@@ -6654,7 +6676,7 @@
         <v>548</v>
       </c>
       <c r="K126" t="n">
-        <v>30.18867924528302</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L126" t="n">
         <v>2874.4</v>
@@ -6705,7 +6727,7 @@
         <v>550</v>
       </c>
       <c r="K127" t="n">
-        <v>16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L127" t="n">
         <v>2876.6</v>
@@ -6756,7 +6778,7 @@
         <v>565</v>
       </c>
       <c r="K128" t="n">
-        <v>26.41509433962264</v>
+        <v>65.38461538461539</v>
       </c>
       <c r="L128" t="n">
         <v>2879.3</v>
@@ -6807,7 +6829,7 @@
         <v>569</v>
       </c>
       <c r="K129" t="n">
-        <v>30.27522935779817</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L129" t="n">
         <v>2883.1</v>
@@ -6858,7 +6880,7 @@
         <v>569</v>
       </c>
       <c r="K130" t="n">
-        <v>23.23232323232323</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L130" t="n">
         <v>2886.2</v>
@@ -6909,7 +6931,7 @@
         <v>575</v>
       </c>
       <c r="K131" t="n">
-        <v>28.84615384615384</v>
+        <v>67.3469387755102</v>
       </c>
       <c r="L131" t="n">
         <v>2890</v>
@@ -6960,7 +6982,7 @@
         <v>575</v>
       </c>
       <c r="K132" t="n">
-        <v>30.09708737864078</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L132" t="n">
         <v>2893.3</v>
@@ -7011,7 +7033,7 @@
         <v>584</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333333</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="L133" t="n">
         <v>2896.9</v>
@@ -7062,7 +7084,7 @@
         <v>589</v>
       </c>
       <c r="K134" t="n">
-        <v>36.28318584070797</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L134" t="n">
         <v>2900.5</v>
@@ -7113,7 +7135,7 @@
         <v>612</v>
       </c>
       <c r="K135" t="n">
-        <v>60</v>
+        <v>93.75</v>
       </c>
       <c r="L135" t="n">
         <v>2907</v>
@@ -7164,7 +7186,7 @@
         <v>612</v>
       </c>
       <c r="K136" t="n">
-        <v>65.28925619834712</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>2913</v>
@@ -7215,7 +7237,7 @@
         <v>635</v>
       </c>
       <c r="K137" t="n">
-        <v>43.88489208633094</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>2916.9</v>
@@ -7266,7 +7288,7 @@
         <v>638</v>
       </c>
       <c r="K138" t="n">
-        <v>40.90909090909091</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>2919.6</v>
@@ -7317,7 +7339,7 @@
         <v>644</v>
       </c>
       <c r="K139" t="n">
-        <v>41.98473282442748</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="L139" t="n">
         <v>2921.3</v>
@@ -7368,7 +7390,7 @@
         <v>651</v>
       </c>
       <c r="K140" t="n">
-        <v>41.98473282442748</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="L140" t="n">
         <v>2923.7</v>
@@ -7419,7 +7441,7 @@
         <v>652</v>
       </c>
       <c r="K141" t="n">
-        <v>41.98473282442748</v>
+        <v>22.07792207792208</v>
       </c>
       <c r="L141" t="n">
         <v>2925.4</v>
@@ -7470,7 +7492,7 @@
         <v>665</v>
       </c>
       <c r="K142" t="n">
-        <v>45.32374100719424</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L142" t="n">
         <v>2928.4</v>
@@ -7521,7 +7543,7 @@
         <v>668</v>
       </c>
       <c r="K143" t="n">
-        <v>44.11764705882353</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L143" t="n">
         <v>2930.8</v>
@@ -7572,7 +7594,7 @@
         <v>676</v>
       </c>
       <c r="K144" t="n">
-        <v>33.81294964028777</v>
+        <v>-18.75</v>
       </c>
       <c r="L144" t="n">
         <v>2931.9</v>
@@ -7623,7 +7645,7 @@
         <v>678</v>
       </c>
       <c r="K145" t="n">
-        <v>37.77777777777778</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L145" t="n">
         <v>2930.5</v>
@@ -7674,7 +7696,7 @@
         <v>678</v>
       </c>
       <c r="K146" t="n">
-        <v>35.38461538461539</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L146" t="n">
         <v>2929.1</v>
@@ -7725,7 +7747,7 @@
         <v>688</v>
       </c>
       <c r="K147" t="n">
-        <v>42.02898550724638</v>
+        <v>32</v>
       </c>
       <c r="L147" t="n">
         <v>2931</v>
@@ -7776,7 +7798,7 @@
         <v>689</v>
       </c>
       <c r="K148" t="n">
-        <v>35.48387096774194</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L148" t="n">
         <v>2932.7</v>
@@ -7827,7 +7849,7 @@
         <v>690</v>
       </c>
       <c r="K149" t="n">
-        <v>33.88429752066116</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L149" t="n">
         <v>2935.1</v>
@@ -7878,7 +7900,7 @@
         <v>692</v>
       </c>
       <c r="K150" t="n">
-        <v>34.95934959349594</v>
+        <v>50</v>
       </c>
       <c r="L150" t="n">
         <v>2937</v>
@@ -7929,7 +7951,7 @@
         <v>697</v>
       </c>
       <c r="K151" t="n">
-        <v>26.22950819672131</v>
+        <v>6.25</v>
       </c>
       <c r="L151" t="n">
         <v>2938.5</v>
@@ -7980,7 +8002,7 @@
         <v>697</v>
       </c>
       <c r="K152" t="n">
-        <v>26.22950819672131</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L152" t="n">
         <v>2938.7</v>
@@ -8031,7 +8053,7 @@
         <v>706</v>
       </c>
       <c r="K153" t="n">
-        <v>11.47540983606557</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L153" t="n">
         <v>2937.7</v>
@@ -8082,7 +8104,7 @@
         <v>711</v>
       </c>
       <c r="K154" t="n">
-        <v>3.278688524590164</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L154" t="n">
         <v>2937</v>
@@ -8133,7 +8155,7 @@
         <v>724</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.357142857142857</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L155" t="n">
         <v>2937.8</v>
@@ -8184,7 +8206,7 @@
         <v>741</v>
       </c>
       <c r="K156" t="n">
-        <v>-17.82945736434108</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L156" t="n">
         <v>2936.9</v>
@@ -8235,7 +8257,7 @@
         <v>753</v>
       </c>
       <c r="K157" t="n">
-        <v>10.16949152542373</v>
+        <v>-12.5</v>
       </c>
       <c r="L157" t="n">
         <v>2936.2</v>
@@ -8286,7 +8308,7 @@
         <v>761</v>
       </c>
       <c r="K158" t="n">
-        <v>0.8130081300813009</v>
+        <v>-23.94366197183098</v>
       </c>
       <c r="L158" t="n">
         <v>2934.6</v>
@@ -8337,7 +8359,7 @@
         <v>761</v>
       </c>
       <c r="K159" t="n">
-        <v>5.982905982905983</v>
+        <v>-27.53623188405797</v>
       </c>
       <c r="L159" t="n">
         <v>2932.9</v>
@@ -8388,7 +8410,7 @@
         <v>762</v>
       </c>
       <c r="K160" t="n">
-        <v>-0.9009009009009009</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L160" t="n">
         <v>2930.9</v>
@@ -8439,7 +8461,7 @@
         <v>767</v>
       </c>
       <c r="K161" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>2929.9</v>
@@ -8490,7 +8512,7 @@
         <v>772</v>
       </c>
       <c r="K162" t="n">
-        <v>-2.803738317757009</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="L162" t="n">
         <v>2929.4</v>
@@ -8541,7 +8563,7 @@
         <v>772</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.769230769230769</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="L163" t="n">
         <v>2929.8</v>
@@ -8592,7 +8614,7 @@
         <v>772</v>
       </c>
       <c r="K164" t="n">
-        <v>2.083333333333333</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L164" t="n">
         <v>2930.7</v>
@@ -8643,7 +8665,7 @@
         <v>781</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.854368932038835</v>
+        <v>10</v>
       </c>
       <c r="L165" t="n">
         <v>2929.4</v>
@@ -8694,7 +8716,7 @@
         <v>787</v>
       </c>
       <c r="K166" t="n">
-        <v>-10.09174311926606</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L166" t="n">
         <v>2929.2</v>
@@ -8745,7 +8767,7 @@
         <v>799</v>
       </c>
       <c r="K167" t="n">
-        <v>-8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L167" t="n">
         <v>2929</v>
@@ -8796,7 +8818,7 @@
         <v>799</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.090909090909092</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L168" t="n">
         <v>2929.6</v>
@@ -8847,7 +8869,7 @@
         <v>805</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.78260869565217</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L169" t="n">
         <v>2929.6</v>
@@ -8898,7 +8920,7 @@
         <v>806</v>
       </c>
       <c r="K170" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L170" t="n">
         <v>2929.8</v>
@@ -8949,7 +8971,7 @@
         <v>816</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.521008403361344</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L171" t="n">
         <v>2930.5</v>
@@ -9000,7 +9022,7 @@
         <v>816</v>
       </c>
       <c r="K172" t="n">
-        <v>-2.521008403361344</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L172" t="n">
         <v>2930.7</v>
@@ -9051,7 +9073,7 @@
         <v>816</v>
       </c>
       <c r="K173" t="n">
-        <v>5.454545454545454</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L173" t="n">
         <v>2930.9</v>
@@ -9102,7 +9124,7 @@
         <v>816</v>
       </c>
       <c r="K174" t="n">
-        <v>10.47619047619048</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L174" t="n">
         <v>2931.1</v>
@@ -9153,7 +9175,7 @@
         <v>816</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.173913043478261</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L175" t="n">
         <v>2932.2</v>
@@ -9204,7 +9226,7 @@
         <v>825</v>
       </c>
       <c r="K176" t="n">
-        <v>7.142857142857142</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L176" t="n">
         <v>2933</v>
@@ -9255,7 +9277,7 @@
         <v>826</v>
       </c>
       <c r="K177" t="n">
-        <v>-6.849315068493151</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L177" t="n">
         <v>2932.7</v>
@@ -9306,7 +9328,7 @@
         <v>827</v>
       </c>
       <c r="K178" t="n">
-        <v>3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L178" t="n">
         <v>2932.3</v>
@@ -9357,7 +9379,7 @@
         <v>833</v>
       </c>
       <c r="K179" t="n">
-        <v>11.11111111111111</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L179" t="n">
         <v>2933.1</v>
@@ -9408,7 +9430,7 @@
         <v>839</v>
       </c>
       <c r="K180" t="n">
-        <v>3.896103896103896</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L180" t="n">
         <v>2933.2</v>
@@ -9459,7 +9481,7 @@
         <v>840</v>
       </c>
       <c r="K181" t="n">
-        <v>-4.10958904109589</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L181" t="n">
         <v>2932.2</v>
@@ -9510,7 +9532,7 @@
         <v>844</v>
       </c>
       <c r="K182" t="n">
-        <v>-5.555555555555555</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L182" t="n">
         <v>2931.6</v>
@@ -9561,7 +9583,7 @@
         <v>850</v>
       </c>
       <c r="K183" t="n">
-        <v>-12.82051282051282</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L183" t="n">
         <v>2930.4</v>
@@ -9612,7 +9634,7 @@
         <v>865</v>
       </c>
       <c r="K184" t="n">
-        <v>-26.88172043010752</v>
+        <v>-55.10204081632652</v>
       </c>
       <c r="L184" t="n">
         <v>2927.7</v>
@@ -9663,7 +9685,7 @@
         <v>887</v>
       </c>
       <c r="K185" t="n">
-        <v>-35.84905660377358</v>
+        <v>-64.51612903225806</v>
       </c>
       <c r="L185" t="n">
         <v>2922.8</v>
@@ -9714,7 +9736,7 @@
         <v>897</v>
       </c>
       <c r="K186" t="n">
-        <v>-20</v>
+        <v>-43.66197183098591</v>
       </c>
       <c r="L186" t="n">
         <v>2919.8</v>
@@ -9765,7 +9787,7 @@
         <v>904</v>
       </c>
       <c r="K187" t="n">
-        <v>-25.71428571428571</v>
+        <v>-29.87012987012987</v>
       </c>
       <c r="L187" t="n">
         <v>2917.4</v>
@@ -9816,7 +9838,7 @@
         <v>908</v>
       </c>
       <c r="K188" t="n">
-        <v>-21.10091743119266</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>2915.5</v>
@@ -9867,7 +9889,7 @@
         <v>909</v>
       </c>
       <c r="K189" t="n">
-        <v>-17.30769230769231</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L189" t="n">
         <v>2912.9</v>
@@ -9918,7 +9940,7 @@
         <v>913</v>
       </c>
       <c r="K190" t="n">
-        <v>-21.49532710280374</v>
+        <v>-31.50684931506849</v>
       </c>
       <c r="L190" t="n">
         <v>2910.5</v>
@@ -9969,7 +9991,7 @@
         <v>917</v>
       </c>
       <c r="K191" t="n">
-        <v>-36.63366336633663</v>
+        <v>-42.46575342465754</v>
       </c>
       <c r="L191" t="n">
         <v>2907.8</v>
@@ -10020,7 +10042,7 @@
         <v>925</v>
       </c>
       <c r="K192" t="n">
-        <v>-41.28440366972477</v>
+        <v>-44</v>
       </c>
       <c r="L192" t="n">
         <v>2903.9</v>
@@ -10071,7 +10093,7 @@
         <v>933</v>
       </c>
       <c r="K193" t="n">
-        <v>-31.62393162393162</v>
+        <v>-14.70588235294118</v>
       </c>
       <c r="L193" t="n">
         <v>2901.4</v>
@@ -10122,7 +10144,7 @@
         <v>933</v>
       </c>
       <c r="K194" t="n">
-        <v>-31.62393162393162</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L194" t="n">
         <v>2900.4</v>
@@ -10173,7 +10195,7 @@
         <v>933</v>
       </c>
       <c r="K195" t="n">
-        <v>-31.62393162393162</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L195" t="n">
         <v>2901.6</v>
@@ -10224,7 +10246,7 @@
         <v>935</v>
       </c>
       <c r="K196" t="n">
-        <v>-27.27272727272727</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L196" t="n">
         <v>2901.6</v>
@@ -10275,7 +10297,7 @@
         <v>936</v>
       </c>
       <c r="K197" t="n">
-        <v>-29.09090909090909</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L197" t="n">
         <v>2900.8</v>
@@ -10326,7 +10348,7 @@
         <v>940</v>
       </c>
       <c r="K198" t="n">
-        <v>-30.97345132743363</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L198" t="n">
         <v>2899.2</v>
@@ -10377,7 +10399,7 @@
         <v>942</v>
       </c>
       <c r="K199" t="n">
-        <v>-39.44954128440367</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L199" t="n">
         <v>2897.5</v>
@@ -10428,7 +10450,7 @@
         <v>946</v>
       </c>
       <c r="K200" t="n">
-        <v>-38.31775700934579</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L200" t="n">
         <v>2895.8</v>
@@ -10479,7 +10501,7 @@
         <v>955</v>
       </c>
       <c r="K201" t="n">
-        <v>-26.95652173913043</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>2895.4</v>
@@ -10530,7 +10552,7 @@
         <v>963</v>
       </c>
       <c r="K202" t="n">
-        <v>-36.1344537815126</v>
+        <v>-40</v>
       </c>
       <c r="L202" t="n">
         <v>2895</v>
@@ -10581,7 +10603,7 @@
         <v>971</v>
       </c>
       <c r="K203" t="n">
-        <v>-37.1900826446281</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L203" t="n">
         <v>2893</v>
@@ -10632,7 +10654,7 @@
         <v>971</v>
       </c>
       <c r="K204" t="n">
-        <v>-28.30188679245283</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L204" t="n">
         <v>2891</v>
@@ -10683,7 +10705,7 @@
         <v>992</v>
       </c>
       <c r="K205" t="n">
-        <v>12.38095238095238</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L205" t="n">
         <v>2891.1</v>
@@ -10734,7 +10756,7 @@
         <v>1006</v>
       </c>
       <c r="K206" t="n">
-        <v>-10.09174311926606</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>2890</v>
@@ -10785,7 +10807,7 @@
         <v>1006</v>
       </c>
       <c r="K207" t="n">
-        <v>-17.64705882352941</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L207" t="n">
         <v>2889</v>
@@ -10836,7 +10858,7 @@
         <v>1006</v>
       </c>
       <c r="K208" t="n">
-        <v>-22.44897959183674</v>
+        <v>-6.25</v>
       </c>
       <c r="L208" t="n">
         <v>2888.4</v>
@@ -10887,7 +10909,7 @@
         <v>1020</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.306306306306306</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L209" t="n">
         <v>2889.4</v>
@@ -10938,7 +10960,7 @@
         <v>1020</v>
       </c>
       <c r="K210" t="n">
-        <v>-2.803738317757009</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L210" t="n">
         <v>2890.8</v>
@@ -10989,7 +11011,7 @@
         <v>1021</v>
       </c>
       <c r="K211" t="n">
-        <v>1.923076923076923</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L211" t="n">
         <v>2891.4</v>
@@ -11040,7 +11062,7 @@
         <v>1023</v>
       </c>
       <c r="K212" t="n">
-        <v>12.24489795918367</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L212" t="n">
         <v>2893</v>
@@ -11091,7 +11113,7 @@
         <v>1024</v>
       </c>
       <c r="K213" t="n">
-        <v>5.494505494505495</v>
+        <v>47.16981132075472</v>
       </c>
       <c r="L213" t="n">
         <v>2895.5</v>
@@ -11142,7 +11164,7 @@
         <v>1025</v>
       </c>
       <c r="K214" t="n">
-        <v>6.521739130434782</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L214" t="n">
         <v>2898.1</v>
@@ -11193,7 +11215,7 @@
         <v>1034</v>
       </c>
       <c r="K215" t="n">
-        <v>14.85148514851485</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>2899.5</v>
@@ -11244,7 +11266,7 @@
         <v>1044</v>
       </c>
       <c r="K216" t="n">
-        <v>6.422018348623854</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L216" t="n">
         <v>2901.3</v>
@@ -11295,7 +11317,7 @@
         <v>1044</v>
       </c>
       <c r="K217" t="n">
-        <v>7.407407407407407</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L217" t="n">
         <v>2903.1</v>
@@ -11346,7 +11368,7 @@
         <v>1052</v>
       </c>
       <c r="K218" t="n">
-        <v>17.85714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="L218" t="n">
         <v>2905.7</v>
@@ -11397,7 +11419,7 @@
         <v>1052</v>
       </c>
       <c r="K219" t="n">
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="L219" t="n">
         <v>2906.9</v>
@@ -11448,7 +11470,7 @@
         <v>1052</v>
       </c>
       <c r="K220" t="n">
-        <v>24.52830188679245</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L220" t="n">
         <v>2908.1</v>
@@ -11499,7 +11521,7 @@
         <v>1052</v>
       </c>
       <c r="K221" t="n">
-        <v>17.52577319587629</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L221" t="n">
         <v>2909.2</v>
@@ -11550,7 +11572,7 @@
         <v>1052</v>
       </c>
       <c r="K222" t="n">
-        <v>28.08988764044944</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L222" t="n">
         <v>2910.1</v>
@@ -11601,7 +11623,7 @@
         <v>1052</v>
       </c>
       <c r="K223" t="n">
-        <v>40.74074074074074</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L223" t="n">
         <v>2910.9</v>
@@ -11652,7 +11674,7 @@
         <v>1062</v>
       </c>
       <c r="K224" t="n">
-        <v>47.25274725274725</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L224" t="n">
         <v>2912.6</v>
@@ -11703,7 +11725,7 @@
         <v>1071</v>
       </c>
       <c r="K225" t="n">
-        <v>39.24050632911392</v>
+        <v>100</v>
       </c>
       <c r="L225" t="n">
         <v>2914.3</v>
@@ -11754,7 +11776,7 @@
         <v>1072</v>
       </c>
       <c r="K226" t="n">
-        <v>66.66666666666666</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="L226" t="n">
         <v>2916.9</v>
@@ -11805,7 +11827,7 @@
         <v>1078</v>
       </c>
       <c r="K227" t="n">
-        <v>52.77777777777778</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L227" t="n">
         <v>2918.9</v>
@@ -11856,7 +11878,7 @@
         <v>1081</v>
       </c>
       <c r="K228" t="n">
-        <v>46.66666666666666</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L228" t="n">
         <v>2919.8</v>
@@ -11907,7 +11929,7 @@
         <v>1089</v>
       </c>
       <c r="K229" t="n">
-        <v>18.84057971014493</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L229" t="n">
         <v>2919.9</v>
@@ -11958,7 +11980,7 @@
         <v>1090</v>
       </c>
       <c r="K230" t="n">
-        <v>20</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L230" t="n">
         <v>2920.1</v>
@@ -12009,7 +12031,7 @@
         <v>1090</v>
       </c>
       <c r="K231" t="n">
-        <v>18.84057971014493</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L231" t="n">
         <v>2920.3</v>
@@ -12060,7 +12082,7 @@
         <v>1090</v>
       </c>
       <c r="K232" t="n">
-        <v>16.41791044776119</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L232" t="n">
         <v>2920.5</v>
@@ -12111,7 +12133,7 @@
         <v>1091</v>
       </c>
       <c r="K233" t="n">
-        <v>16.41791044776119</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L233" t="n">
         <v>2920.8</v>
@@ -12162,7 +12184,7 @@
         <v>1103</v>
       </c>
       <c r="K234" t="n">
-        <v>-2.564102564102564</v>
+        <v>-87.5</v>
       </c>
       <c r="L234" t="n">
         <v>2918.9</v>
@@ -12213,7 +12235,7 @@
         <v>1103</v>
       </c>
       <c r="K235" t="n">
-        <v>-15.94202898550724</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L235" t="n">
         <v>2916.1</v>
@@ -12264,7 +12286,7 @@
         <v>1110</v>
       </c>
       <c r="K236" t="n">
-        <v>-12.12121212121212</v>
+        <v>-87.5</v>
       </c>
       <c r="L236" t="n">
         <v>2912.7</v>
@@ -12315,7 +12337,7 @@
         <v>1113</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.246376811594203</v>
+        <v>-68.75</v>
       </c>
       <c r="L237" t="n">
         <v>2910.2</v>
@@ -12366,7 +12388,7 @@
         <v>1121</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.246376811594203</v>
+        <v>-18.75</v>
       </c>
       <c r="L238" t="n">
         <v>2908.8</v>
@@ -12417,7 +12439,7 @@
         <v>1123</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.225352112676056</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L239" t="n">
         <v>2908.4</v>
@@ -12468,7 +12490,7 @@
         <v>1135</v>
       </c>
       <c r="K240" t="n">
-        <v>10.8433734939759</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L240" t="n">
         <v>2909.1</v>
@@ -12519,7 +12541,7 @@
         <v>1157</v>
       </c>
       <c r="K241" t="n">
-        <v>-12.38095238095238</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L241" t="n">
         <v>2907.6</v>
@@ -12570,7 +12592,7 @@
         <v>1157</v>
       </c>
       <c r="K242" t="n">
-        <v>-12.38095238095238</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L242" t="n">
         <v>2906.1</v>
@@ -12621,7 +12643,7 @@
         <v>1157</v>
       </c>
       <c r="K243" t="n">
-        <v>-12.38095238095238</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L243" t="n">
         <v>2904.5</v>
@@ -12672,7 +12694,7 @@
         <v>1165</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.5631067961165</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L244" t="n">
         <v>2904.9</v>
@@ -12723,7 +12745,7 @@
         <v>1167</v>
       </c>
       <c r="K245" t="n">
-        <v>-22.91666666666666</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L245" t="n">
         <v>2905.5</v>
@@ -12774,7 +12796,7 @@
         <v>1168</v>
       </c>
       <c r="K246" t="n">
-        <v>-22.91666666666666</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L246" t="n">
         <v>2906.7</v>
@@ -12825,7 +12847,7 @@
         <v>1176</v>
       </c>
       <c r="K247" t="n">
-        <v>-24.48979591836735</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L247" t="n">
         <v>2906.8</v>
@@ -12876,7 +12898,7 @@
         <v>1177</v>
       </c>
       <c r="K248" t="n">
-        <v>-20.83333333333334</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L248" t="n">
         <v>2906.2</v>
@@ -12927,7 +12949,7 @@
         <v>1177</v>
       </c>
       <c r="K249" t="n">
-        <v>-13.63636363636363</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L249" t="n">
         <v>2905.4</v>
@@ -12978,7 +13000,7 @@
         <v>1177</v>
       </c>
       <c r="K250" t="n">
-        <v>-14.94252873563219</v>
+        <v>10</v>
       </c>
       <c r="L250" t="n">
         <v>2903.4</v>
@@ -13029,7 +13051,7 @@
         <v>1179</v>
       </c>
       <c r="K251" t="n">
-        <v>-16.85393258426966</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>2903.4</v>
@@ -13080,7 +13102,7 @@
         <v>1196</v>
       </c>
       <c r="K252" t="n">
-        <v>-30.18867924528302</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L252" t="n">
         <v>2901.7</v>
@@ -13131,7 +13153,7 @@
         <v>1199</v>
       </c>
       <c r="K253" t="n">
-        <v>-33.33333333333333</v>
+        <v>-82.35294117647058</v>
       </c>
       <c r="L253" t="n">
         <v>2899.7</v>
@@ -13182,7 +13204,7 @@
         <v>1208</v>
       </c>
       <c r="K254" t="n">
-        <v>-14.28571428571428</v>
+        <v>-51.21951219512195</v>
       </c>
       <c r="L254" t="n">
         <v>2897.8</v>
@@ -13233,7 +13255,7 @@
         <v>1212</v>
       </c>
       <c r="K255" t="n">
-        <v>-10.09174311926606</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L255" t="n">
         <v>2896.1</v>
@@ -13284,7 +13306,7 @@
         <v>1226</v>
       </c>
       <c r="K256" t="n">
-        <v>8.620689655172415</v>
+        <v>12</v>
       </c>
       <c r="L256" t="n">
         <v>2895.9</v>
@@ -13335,7 +13357,7 @@
         <v>1235</v>
       </c>
       <c r="K257" t="n">
-        <v>-1.639344262295082</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L257" t="n">
         <v>2895.6</v>
@@ -13386,7 +13408,7 @@
         <v>1243</v>
       </c>
       <c r="K258" t="n">
-        <v>-14.75409836065574</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L258" t="n">
         <v>2894.4</v>
@@ -13437,7 +13459,7 @@
         <v>1243</v>
       </c>
       <c r="K259" t="n">
-        <v>-16.66666666666666</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L259" t="n">
         <v>2893.2</v>
@@ -13488,7 +13510,7 @@
         <v>1249</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.33333333333333</v>
+        <v>-22.85714285714286</v>
       </c>
       <c r="L260" t="n">
         <v>2891.4</v>
@@ -13539,7 +13561,7 @@
         <v>1271</v>
       </c>
       <c r="K261" t="n">
-        <v>5.263157894736842</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="L261" t="n">
         <v>2892</v>
@@ -13590,7 +13612,7 @@
         <v>1274</v>
       </c>
       <c r="K262" t="n">
-        <v>7.692307692307693</v>
+        <v>38.66666666666666</v>
       </c>
       <c r="L262" t="n">
         <v>2894.6</v>
@@ -13641,7 +13663,7 @@
         <v>1274</v>
       </c>
       <c r="K263" t="n">
-        <v>7.692307692307693</v>
+        <v>30.3030303030303</v>
       </c>
       <c r="L263" t="n">
         <v>2897.5</v>
@@ -13692,7 +13714,7 @@
         <v>1275</v>
       </c>
       <c r="K264" t="n">
-        <v>1.818181818181818</v>
+        <v>26.98412698412698</v>
       </c>
       <c r="L264" t="n">
         <v>2899.6</v>
@@ -13743,7 +13765,7 @@
         <v>1280</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.424778761061947</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L265" t="n">
         <v>2900.8</v>
@@ -13794,7 +13816,7 @@
         <v>1303</v>
       </c>
       <c r="K266" t="n">
-        <v>14.07407407407407</v>
+        <v>44.11764705882353</v>
       </c>
       <c r="L266" t="n">
         <v>2902.9</v>
@@ -13845,7 +13867,7 @@
         <v>1303</v>
       </c>
       <c r="K267" t="n">
-        <v>21.25984251968504</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>2905.9</v>
@@ -13896,7 +13918,7 @@
         <v>1304</v>
       </c>
       <c r="K268" t="n">
-        <v>21.25984251968504</v>
+        <v>63.9344262295082</v>
       </c>
       <c r="L268" t="n">
         <v>2909.8</v>
@@ -13947,7 +13969,7 @@
         <v>1312</v>
       </c>
       <c r="K269" t="n">
-        <v>25.92592592592592</v>
+        <v>84.12698412698413</v>
       </c>
       <c r="L269" t="n">
         <v>2914.5</v>
@@ -13998,7 +14020,7 @@
         <v>1312</v>
       </c>
       <c r="K270" t="n">
-        <v>25.92592592592592</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="L270" t="n">
         <v>2919.8</v>
@@ -14049,7 +14071,7 @@
         <v>1318</v>
       </c>
       <c r="K271" t="n">
-        <v>30.93525179856115</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="L271" t="n">
         <v>2923.5</v>
@@ -14100,7 +14122,7 @@
         <v>1334</v>
       </c>
       <c r="K272" t="n">
-        <v>31.88405797101449</v>
+        <v>30</v>
       </c>
       <c r="L272" t="n">
         <v>2925.3</v>
@@ -14151,7 +14173,7 @@
         <v>1339</v>
       </c>
       <c r="K273" t="n">
-        <v>30</v>
+        <v>18.75</v>
       </c>
       <c r="L273" t="n">
         <v>2926.6</v>
@@ -14202,7 +14224,7 @@
         <v>1348</v>
       </c>
       <c r="K274" t="n">
-        <v>17.14285714285714</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L274" t="n">
         <v>2926.9</v>
@@ -14253,7 +14275,7 @@
         <v>1355</v>
       </c>
       <c r="K275" t="n">
-        <v>18.88111888111888</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L275" t="n">
         <v>2928.4</v>
@@ -14304,7 +14326,7 @@
         <v>1356</v>
       </c>
       <c r="K276" t="n">
-        <v>9.230769230769232</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L276" t="n">
         <v>2927.5</v>
@@ -14355,7 +14377,7 @@
         <v>1360</v>
       </c>
       <c r="K277" t="n">
-        <v>20</v>
+        <v>-10.71428571428571</v>
       </c>
       <c r="L277" t="n">
         <v>2927</v>
@@ -14406,7 +14428,7 @@
         <v>1360</v>
       </c>
       <c r="K278" t="n">
-        <v>28.2051282051282</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L278" t="n">
         <v>2926.4</v>
@@ -14457,7 +14479,7 @@
         <v>1360</v>
       </c>
       <c r="K279" t="n">
-        <v>28.2051282051282</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L279" t="n">
         <v>2925</v>
@@ -14508,7 +14530,7 @@
         <v>1360</v>
       </c>
       <c r="K280" t="n">
-        <v>35.13513513513514</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L280" t="n">
         <v>2923.6</v>
@@ -14559,7 +14581,7 @@
         <v>1360</v>
       </c>
       <c r="K281" t="n">
-        <v>19.10112359550562</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L281" t="n">
         <v>2921.6</v>
@@ -14610,7 +14632,7 @@
         <v>1360</v>
       </c>
       <c r="K282" t="n">
-        <v>16.27906976744186</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L282" t="n">
         <v>2921.2</v>
@@ -14661,7 +14683,7 @@
         <v>1361</v>
       </c>
       <c r="K283" t="n">
-        <v>17.24137931034483</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L283" t="n">
         <v>2921.4</v>
@@ -14712,7 +14734,7 @@
         <v>1370</v>
       </c>
       <c r="K284" t="n">
-        <v>24.21052631578947</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L284" t="n">
         <v>2923.4</v>
@@ -14763,7 +14785,7 @@
         <v>1372</v>
       </c>
       <c r="K285" t="n">
-        <v>28.26086956521739</v>
+        <v>75</v>
       </c>
       <c r="L285" t="n">
         <v>2924.5</v>
@@ -14814,7 +14836,7 @@
         <v>1377</v>
       </c>
       <c r="K286" t="n">
-        <v>10.81081081081081</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L286" t="n">
         <v>2926.2</v>
@@ -14865,7 +14887,7 @@
         <v>1388</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.529411764705882</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L287" t="n">
         <v>2926.4</v>
@@ -14916,7 +14938,7 @@
         <v>1388</v>
       </c>
       <c r="K288" t="n">
-        <v>-4.761904761904762</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L288" t="n">
         <v>2926.6</v>
@@ -14967,7 +14989,7 @@
         <v>1388</v>
       </c>
       <c r="K289" t="n">
-        <v>-15.78947368421053</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L289" t="n">
         <v>2926.8</v>
@@ -15018,7 +15040,7 @@
         <v>1389</v>
       </c>
       <c r="K290" t="n">
-        <v>-16.88311688311688</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L290" t="n">
         <v>2926.9</v>
@@ -15069,7 +15091,7 @@
         <v>1390</v>
       </c>
       <c r="K291" t="n">
-        <v>-27.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>2926.9</v>
@@ -15120,7 +15142,7 @@
         <v>1396</v>
       </c>
       <c r="K292" t="n">
-        <v>3.225806451612903</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>2927.5</v>
@@ -15171,7 +15193,7 @@
         <v>1398</v>
       </c>
       <c r="K293" t="n">
-        <v>15.25423728813559</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L293" t="n">
         <v>2928.2</v>
@@ -15222,7 +15244,7 @@
         <v>1402</v>
       </c>
       <c r="K294" t="n">
-        <v>40.74074074074074</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>2928.4</v>
@@ -15273,7 +15295,7 @@
         <v>1410</v>
       </c>
       <c r="K295" t="n">
-        <v>12.72727272727273</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L295" t="n">
         <v>2928</v>
@@ -15324,7 +15346,7 @@
         <v>1418</v>
       </c>
       <c r="K296" t="n">
-        <v>25.80645161290322</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>2927.9</v>
@@ -15375,7 +15397,7 @@
         <v>1427</v>
       </c>
       <c r="K297" t="n">
-        <v>4.477611940298507</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L297" t="n">
         <v>2928</v>
@@ -15426,7 +15448,7 @@
         <v>1427</v>
       </c>
       <c r="K298" t="n">
-        <v>4.477611940298507</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L298" t="n">
         <v>2928.1</v>
@@ -15477,7 +15499,7 @@
         <v>1428</v>
       </c>
       <c r="K299" t="n">
-        <v>2.941176470588235</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L299" t="n">
         <v>2928.1</v>
@@ -15528,7 +15550,7 @@
         <v>1429</v>
       </c>
       <c r="K300" t="n">
-        <v>1.449275362318841</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L300" t="n">
         <v>2928.1</v>
@@ -15579,7 +15601,7 @@
         <v>1436</v>
       </c>
       <c r="K301" t="n">
-        <v>-7.894736842105263</v>
+        <v>-30</v>
       </c>
       <c r="L301" t="n">
         <v>2927.5</v>
@@ -15630,7 +15652,7 @@
         <v>1448</v>
       </c>
       <c r="K302" t="n">
-        <v>-20.45454545454546</v>
+        <v>-52</v>
       </c>
       <c r="L302" t="n">
         <v>2925.1</v>
@@ -15681,7 +15703,7 @@
         <v>1458</v>
       </c>
       <c r="K303" t="n">
-        <v>-29.89690721649485</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L303" t="n">
         <v>2921.5</v>
@@ -15732,7 +15754,7 @@
         <v>1466</v>
       </c>
       <c r="K304" t="n">
-        <v>-31.25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L304" t="n">
         <v>2918.3</v>
@@ -15783,7 +15805,7 @@
         <v>1478</v>
       </c>
       <c r="K305" t="n">
-        <v>-15.09433962264151</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>2917.1</v>
@@ -15834,7 +15856,7 @@
         <v>1478</v>
       </c>
       <c r="K306" t="n">
-        <v>-20.79207920792079</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L306" t="n">
         <v>2915.1</v>
@@ -15885,7 +15907,7 @@
         <v>1482</v>
       </c>
       <c r="K307" t="n">
-        <v>-14.8936170212766</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L307" t="n">
         <v>2913.6</v>
@@ -15936,7 +15958,7 @@
         <v>1483</v>
       </c>
       <c r="K308" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L308" t="n">
         <v>2912</v>
@@ -15987,7 +16009,7 @@
         <v>1491</v>
       </c>
       <c r="K309" t="n">
-        <v>-22.33009708737864</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L309" t="n">
         <v>2909.7</v>
@@ -16038,7 +16060,7 @@
         <v>1498</v>
       </c>
       <c r="K310" t="n">
-        <v>-13.76146788990826</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L310" t="n">
         <v>2908.2</v>
@@ -16089,7 +16111,7 @@
         <v>1500</v>
       </c>
       <c r="K311" t="n">
-        <v>-10.90909090909091</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L311" t="n">
         <v>2907.6</v>
@@ -16140,7 +16162,7 @@
         <v>1509</v>
       </c>
       <c r="K312" t="n">
-        <v>-23.89380530973451</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="L312" t="n">
         <v>2907.3</v>
@@ -16191,7 +16213,7 @@
         <v>1512</v>
       </c>
       <c r="K313" t="n">
-        <v>-28.07017543859649</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L313" t="n">
         <v>2907.7</v>
@@ -16242,7 +16264,7 @@
         <v>1518</v>
       </c>
       <c r="K314" t="n">
-        <v>-36.20689655172414</v>
+        <v>-55.00000000000001</v>
       </c>
       <c r="L314" t="n">
         <v>2906.7</v>
@@ -16293,7 +16315,7 @@
         <v>1520</v>
       </c>
       <c r="K315" t="n">
-        <v>-32.72727272727273</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L315" t="n">
         <v>2904.3</v>
@@ -16344,7 +16366,7 @@
         <v>1527</v>
       </c>
       <c r="K316" t="n">
-        <v>-46.78899082568807</v>
+        <v>-60</v>
       </c>
       <c r="L316" t="n">
         <v>2901.2</v>
@@ -16395,7 +16417,7 @@
         <v>1535</v>
       </c>
       <c r="K317" t="n">
-        <v>-46.2962962962963</v>
+        <v>-65.38461538461539</v>
       </c>
       <c r="L317" t="n">
         <v>2897.7</v>
@@ -16446,7 +16468,7 @@
         <v>1536</v>
       </c>
       <c r="K318" t="n">
-        <v>-46.78899082568807</v>
+        <v>-60</v>
       </c>
       <c r="L318" t="n">
         <v>2894.2</v>
@@ -16497,7 +16519,7 @@
         <v>1545</v>
       </c>
       <c r="K319" t="n">
-        <v>-35.04273504273504</v>
+        <v>-53.19148936170212</v>
       </c>
       <c r="L319" t="n">
         <v>2892.4</v>
@@ -16548,7 +16570,7 @@
         <v>1552</v>
       </c>
       <c r="K320" t="n">
-        <v>-38.21138211382114</v>
+        <v>-65.38461538461539</v>
       </c>
       <c r="L320" t="n">
         <v>2889.2</v>
@@ -16599,7 +16621,7 @@
         <v>1560</v>
       </c>
       <c r="K321" t="n">
-        <v>-25.80645161290322</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>2886.6</v>
@@ -16650,7 +16672,7 @@
         <v>1560</v>
       </c>
       <c r="K322" t="n">
-        <v>-17.85714285714286</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L322" t="n">
         <v>2884.9</v>
@@ -16701,7 +16723,7 @@
         <v>1560</v>
       </c>
       <c r="K323" t="n">
-        <v>-9.803921568627452</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L323" t="n">
         <v>2883.5</v>
@@ -16752,7 +16774,7 @@
         <v>1561</v>
       </c>
       <c r="K324" t="n">
-        <v>-20</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L324" t="n">
         <v>2882.6</v>
@@ -16803,7 +16825,7 @@
         <v>1562</v>
       </c>
       <c r="K325" t="n">
-        <v>-35.71428571428572</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L325" t="n">
         <v>2882</v>
@@ -16854,7 +16876,7 @@
         <v>1562</v>
       </c>
       <c r="K326" t="n">
-        <v>-35.71428571428572</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>2882.1</v>
@@ -16905,7 +16927,7 @@
         <v>1562</v>
       </c>
       <c r="K327" t="n">
-        <v>-32.5</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L327" t="n">
         <v>2883</v>
@@ -16956,7 +16978,7 @@
         <v>1562</v>
       </c>
       <c r="K328" t="n">
-        <v>-31.64556962025317</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L328" t="n">
         <v>2884</v>
@@ -17007,7 +17029,7 @@
         <v>1566</v>
       </c>
       <c r="K329" t="n">
-        <v>-28</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L329" t="n">
         <v>2883.7</v>
@@ -17058,7 +17080,7 @@
         <v>1567</v>
       </c>
       <c r="K330" t="n">
-        <v>-39.1304347826087</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L330" t="n">
         <v>2884.2</v>
@@ -17109,7 +17131,7 @@
         <v>1568</v>
       </c>
       <c r="K331" t="n">
-        <v>-44.11764705882353</v>
+        <v>-50</v>
       </c>
       <c r="L331" t="n">
         <v>2883.8</v>
@@ -17160,7 +17182,7 @@
         <v>1576</v>
       </c>
       <c r="K332" t="n">
-        <v>-19.40298507462687</v>
+        <v>25</v>
       </c>
       <c r="L332" t="n">
         <v>2884.2</v>
@@ -17211,7 +17233,7 @@
         <v>1587</v>
       </c>
       <c r="K333" t="n">
-        <v>-28</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L333" t="n">
         <v>2883.5</v>
@@ -17262,7 +17284,7 @@
         <v>1591</v>
       </c>
       <c r="K334" t="n">
-        <v>-26.02739726027397</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L334" t="n">
         <v>2882.5</v>
@@ -17313,7 +17335,7 @@
         <v>1599</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.39240506329114</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L335" t="n">
         <v>2882.2</v>
@@ -17364,7 +17386,7 @@
         <v>1602</v>
       </c>
       <c r="K336" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>2882.2</v>
@@ -17415,7 +17437,7 @@
         <v>1610</v>
       </c>
       <c r="K337" t="n">
-        <v>1.333333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L337" t="n">
         <v>2881.4</v>
@@ -17466,7 +17488,7 @@
         <v>1610</v>
       </c>
       <c r="K338" t="n">
-        <v>2.702702702702703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L338" t="n">
         <v>2880.6</v>
@@ -17517,7 +17539,7 @@
         <v>1650</v>
       </c>
       <c r="K339" t="n">
-        <v>-44.76190476190477</v>
+        <v>-54.21686746987952</v>
       </c>
       <c r="L339" t="n">
         <v>2876.2</v>
@@ -17568,7 +17590,7 @@
         <v>1656</v>
       </c>
       <c r="K340" t="n">
-        <v>-44.23076923076923</v>
+        <v>-56.81818181818182</v>
       </c>
       <c r="L340" t="n">
         <v>2871.1</v>
@@ -17619,7 +17641,7 @@
         <v>1691</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.50381679389313</v>
+        <v>-20</v>
       </c>
       <c r="L341" t="n">
         <v>2869.6</v>
@@ -17670,7 +17692,7 @@
         <v>1692</v>
       </c>
       <c r="K342" t="n">
-        <v>-15.15151515151515</v>
+        <v>-12.38095238095238</v>
       </c>
       <c r="L342" t="n">
         <v>2867.2</v>
@@ -17721,7 +17743,7 @@
         <v>1693</v>
       </c>
       <c r="K343" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L343" t="n">
         <v>2865.8</v>
@@ -17772,7 +17794,7 @@
         <v>1695</v>
       </c>
       <c r="K344" t="n">
-        <v>-16.41791044776119</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L344" t="n">
         <v>2864.6</v>
@@ -17823,7 +17845,7 @@
         <v>1695</v>
       </c>
       <c r="K345" t="n">
-        <v>-17.29323308270677</v>
+        <v>-24.73118279569892</v>
       </c>
       <c r="L345" t="n">
         <v>2862.6</v>
@@ -17874,7 +17896,7 @@
         <v>1701</v>
       </c>
       <c r="K346" t="n">
-        <v>-12.23021582733813</v>
+        <v>-9.890109890109891</v>
       </c>
       <c r="L346" t="n">
         <v>2860.9</v>
@@ -17925,7 +17947,7 @@
         <v>1705</v>
       </c>
       <c r="K347" t="n">
-        <v>-14.68531468531468</v>
+        <v>-13.68421052631579</v>
       </c>
       <c r="L347" t="n">
         <v>2859.6</v>
@@ -17976,7 +17998,7 @@
         <v>1722</v>
       </c>
       <c r="K348" t="n">
-        <v>-23.75</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="L348" t="n">
         <v>2856.6</v>
@@ -18027,7 +18049,7 @@
         <v>1726</v>
       </c>
       <c r="K349" t="n">
-        <v>-18.75</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L349" t="n">
         <v>2858</v>
@@ -18078,7 +18100,7 @@
         <v>1739</v>
       </c>
       <c r="K350" t="n">
-        <v>-10.46511627906977</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L350" t="n">
         <v>2861.3</v>
@@ -18129,7 +18151,7 @@
         <v>1740</v>
       </c>
       <c r="K351" t="n">
-        <v>-10.46511627906977</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L351" t="n">
         <v>2861</v>
@@ -18180,7 +18202,7 @@
         <v>1742</v>
       </c>
       <c r="K352" t="n">
-        <v>-14.4578313253012</v>
+        <v>2.040816326530612</v>
       </c>
       <c r="L352" t="n">
         <v>2861</v>
@@ -18231,7 +18253,7 @@
         <v>1749</v>
       </c>
       <c r="K353" t="n">
-        <v>-3.703703703703703</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L353" t="n">
         <v>2861.8</v>
@@ -18282,7 +18304,7 @@
         <v>1752</v>
       </c>
       <c r="K354" t="n">
-        <v>0.6211180124223602</v>
+        <v>22.80701754385965</v>
       </c>
       <c r="L354" t="n">
         <v>2863.1</v>
@@ -18333,7 +18355,7 @@
         <v>1754</v>
       </c>
       <c r="K355" t="n">
-        <v>-5.806451612903226</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L355" t="n">
         <v>2864.2</v>
@@ -18384,7 +18406,7 @@
         <v>1756</v>
       </c>
       <c r="K356" t="n">
-        <v>-6.493506493506493</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L356" t="n">
         <v>2864.9</v>
@@ -18435,7 +18457,7 @@
         <v>1769</v>
       </c>
       <c r="K357" t="n">
-        <v>6.918238993710692</v>
+        <v>87.2340425531915</v>
       </c>
       <c r="L357" t="n">
         <v>2867.3</v>
@@ -18486,7 +18508,7 @@
         <v>1769</v>
       </c>
       <c r="K358" t="n">
-        <v>6.918238993710692</v>
+        <v>86.04651162790698</v>
       </c>
       <c r="L358" t="n">
         <v>2871.4</v>
@@ -18537,7 +18559,7 @@
         <v>1769</v>
       </c>
       <c r="K359" t="n">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="L359" t="n">
         <v>2875.1</v>
@@ -18588,7 +18610,7 @@
         <v>1769</v>
       </c>
       <c r="K360" t="n">
-        <v>50.4424778761062</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L360" t="n">
         <v>2877.5</v>
@@ -18639,7 +18661,7 @@
         <v>1785</v>
       </c>
       <c r="K361" t="n">
-        <v>6.382978723404255</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L361" t="n">
         <v>2878.4</v>
@@ -18690,7 +18712,7 @@
         <v>1785</v>
       </c>
       <c r="K362" t="n">
-        <v>7.526881720430108</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>2879.1</v>
@@ -18741,7 +18763,7 @@
         <v>1787</v>
       </c>
       <c r="K363" t="n">
-        <v>10.63829787234043</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L363" t="n">
         <v>2879.3</v>
@@ -18792,7 +18814,7 @@
         <v>1790</v>
       </c>
       <c r="K364" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L364" t="n">
         <v>2879.5</v>
@@ -18843,7 +18865,7 @@
         <v>1794</v>
       </c>
       <c r="K365" t="n">
-        <v>11.11111111111111</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L365" t="n">
         <v>2879.5</v>
@@ -18894,7 +18916,7 @@
         <v>1805</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.769230769230769</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L366" t="n">
         <v>2878.2</v>
@@ -18945,7 +18967,7 @@
         <v>1805</v>
       </c>
       <c r="K367" t="n">
-        <v>-2</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L367" t="n">
         <v>2875.6</v>
@@ -18996,7 +19018,7 @@
         <v>1808</v>
       </c>
       <c r="K368" t="n">
-        <v>20.93023255813954</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L368" t="n">
         <v>2873.3</v>
@@ -19047,7 +19069,7 @@
         <v>1809</v>
       </c>
       <c r="K369" t="n">
-        <v>15.66265060240964</v>
+        <v>-60</v>
       </c>
       <c r="L369" t="n">
         <v>2870.9</v>
@@ -19098,7 +19120,7 @@
         <v>1820</v>
       </c>
       <c r="K370" t="n">
-        <v>13.58024691358025</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L370" t="n">
         <v>2869.6</v>
@@ -19149,7 +19171,7 @@
         <v>1830</v>
       </c>
       <c r="K371" t="n">
-        <v>2.222222222222222</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L371" t="n">
         <v>2868.9</v>
@@ -19200,7 +19222,7 @@
         <v>1841</v>
       </c>
       <c r="K372" t="n">
-        <v>11.11111111111111</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L372" t="n">
         <v>2869.3</v>
@@ -19251,7 +19273,7 @@
         <v>1853</v>
       </c>
       <c r="K373" t="n">
-        <v>15.38461538461539</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L373" t="n">
         <v>2870.7</v>
@@ -19302,7 +19324,7 @@
         <v>1860</v>
       </c>
       <c r="K374" t="n">
-        <v>5.555555555555555</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L374" t="n">
         <v>2871.1</v>
@@ -19353,7 +19375,7 @@
         <v>1860</v>
       </c>
       <c r="K375" t="n">
-        <v>7.547169811320755</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="L375" t="n">
         <v>2871.9</v>
@@ -19404,7 +19426,7 @@
         <v>1868</v>
       </c>
       <c r="K376" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L376" t="n">
         <v>2874.6</v>
@@ -19455,7 +19477,7 @@
         <v>1879</v>
       </c>
       <c r="K377" t="n">
-        <v>10.90909090909091</v>
+        <v>49.29577464788733</v>
       </c>
       <c r="L377" t="n">
         <v>2878.4</v>
@@ -19506,7 +19528,7 @@
         <v>1883</v>
       </c>
       <c r="K378" t="n">
-        <v>7.017543859649122</v>
+        <v>43.24324324324324</v>
       </c>
       <c r="L378" t="n">
         <v>2881.5</v>
@@ -19557,7 +19579,7 @@
         <v>1893</v>
       </c>
       <c r="K379" t="n">
-        <v>-1.612903225806452</v>
+        <v>15.06849315068493</v>
       </c>
       <c r="L379" t="n">
         <v>2883.7</v>
@@ -19608,7 +19630,7 @@
         <v>1894</v>
       </c>
       <c r="K380" t="n">
-        <v>-2.4</v>
+        <v>31.25</v>
       </c>
       <c r="L380" t="n">
         <v>2884.7</v>
@@ -19659,7 +19681,7 @@
         <v>1895</v>
       </c>
       <c r="K381" t="n">
-        <v>10.90909090909091</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L381" t="n">
         <v>2886.6</v>
@@ -19710,7 +19732,7 @@
         <v>1899</v>
       </c>
       <c r="K382" t="n">
-        <v>7.017543859649122</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L382" t="n">
         <v>2887</v>
@@ -19761,7 +19783,7 @@
         <v>1903</v>
       </c>
       <c r="K383" t="n">
-        <v>1.724137931034483</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L383" t="n">
         <v>2885.8</v>
@@ -19812,7 +19834,7 @@
         <v>1904</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L384" t="n">
         <v>2885.4</v>
@@ -19863,7 +19885,7 @@
         <v>1906</v>
       </c>
       <c r="K385" t="n">
-        <v>5.357142857142857</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L385" t="n">
         <v>2885.2</v>
@@ -19914,7 +19936,7 @@
         <v>1914</v>
       </c>
       <c r="K386" t="n">
-        <v>8.256880733944955</v>
+        <v>-82.85714285714286</v>
       </c>
       <c r="L386" t="n">
         <v>2883.4</v>
@@ -19965,7 +19987,7 @@
         <v>1915</v>
       </c>
       <c r="K387" t="n">
-        <v>9.090909090909092</v>
+        <v>-75</v>
       </c>
       <c r="L387" t="n">
         <v>2880.6</v>
@@ -20016,7 +20038,7 @@
         <v>1915</v>
       </c>
       <c r="K388" t="n">
-        <v>6.542056074766355</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L388" t="n">
         <v>2878.2</v>
@@ -20067,7 +20089,7 @@
         <v>1915</v>
       </c>
       <c r="K389" t="n">
-        <v>7.547169811320755</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L389" t="n">
         <v>2876.8</v>
@@ -20118,7 +20140,7 @@
         <v>1925</v>
       </c>
       <c r="K390" t="n">
-        <v>-12.38095238095238</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>2874.5</v>
@@ -20169,7 +20191,7 @@
         <v>1932</v>
       </c>
       <c r="K391" t="n">
-        <v>-9.803921568627452</v>
+        <v>-75.75757575757575</v>
       </c>
       <c r="L391" t="n">
         <v>2871.6</v>
@@ -20220,7 +20242,7 @@
         <v>1933</v>
       </c>
       <c r="K392" t="n">
-        <v>-23.91304347826087</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>2869</v>
@@ -20271,7 +20293,7 @@
         <v>1941</v>
       </c>
       <c r="K393" t="n">
-        <v>-29.54545454545455</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L393" t="n">
         <v>2867.6</v>
@@ -20322,7 +20344,7 @@
         <v>1945</v>
       </c>
       <c r="K394" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>2866.5</v>
@@ -20373,7 +20395,7 @@
         <v>1946</v>
       </c>
       <c r="K395" t="n">
-        <v>-16.27906976744186</v>
+        <v>-12.5</v>
       </c>
       <c r="L395" t="n">
         <v>2865.3</v>
@@ -20424,7 +20446,7 @@
         <v>1956</v>
       </c>
       <c r="K396" t="n">
-        <v>-36.36363636363637</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L396" t="n">
         <v>2863.9</v>
@@ -20475,7 +20497,7 @@
         <v>1957</v>
       </c>
       <c r="K397" t="n">
-        <v>-56.41025641025641</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L397" t="n">
         <v>2862.3</v>
@@ -20526,7 +20548,7 @@
         <v>1959</v>
       </c>
       <c r="K398" t="n">
-        <v>-55.26315789473685</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L398" t="n">
         <v>2860.5</v>
@@ -20577,7 +20599,7 @@
         <v>1967</v>
       </c>
       <c r="K399" t="n">
-        <v>-32.43243243243244</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>2859.5</v>
@@ -20628,7 +20650,7 @@
         <v>1977</v>
       </c>
       <c r="K400" t="n">
-        <v>-39.75903614457831</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L400" t="n">
         <v>2858.5</v>
@@ -20679,7 +20701,7 @@
         <v>1978</v>
       </c>
       <c r="K401" t="n">
-        <v>-39.75903614457831</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L401" t="n">
         <v>2858.1</v>
@@ -20730,7 +20752,7 @@
         <v>1979</v>
       </c>
       <c r="K402" t="n">
-        <v>-35</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L402" t="n">
         <v>2857.9</v>
@@ -20781,7 +20803,7 @@
         <v>1980</v>
       </c>
       <c r="K403" t="n">
-        <v>-32.46753246753246</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L403" t="n">
         <v>2856.8</v>
@@ -20832,7 +20854,7 @@
         <v>1986</v>
       </c>
       <c r="K404" t="n">
-        <v>-24.39024390243902</v>
+        <v>-25</v>
       </c>
       <c r="L404" t="n">
         <v>2855.9</v>
@@ -20883,7 +20905,7 @@
         <v>1986</v>
       </c>
       <c r="K405" t="n">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>2854.9</v>
@@ -20934,7 +20956,7 @@
         <v>1989</v>
       </c>
       <c r="K406" t="n">
-        <v>-22.66666666666666</v>
+        <v>-6.25</v>
       </c>
       <c r="L406" t="n">
         <v>2854.6</v>
@@ -20985,7 +21007,7 @@
         <v>1991</v>
       </c>
       <c r="K407" t="n">
-        <v>-26.31578947368421</v>
+        <v>-6.25</v>
       </c>
       <c r="L407" t="n">
         <v>2854.2</v>
@@ -21036,7 +21058,7 @@
         <v>1992</v>
       </c>
       <c r="K408" t="n">
-        <v>-24.67532467532467</v>
+        <v>-36</v>
       </c>
       <c r="L408" t="n">
         <v>2854.1</v>
@@ -21087,7 +21109,7 @@
         <v>1996</v>
       </c>
       <c r="K409" t="n">
-        <v>-18.51851851851852</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L409" t="n">
         <v>2853.6</v>
@@ -21138,7 +21160,7 @@
         <v>1998</v>
       </c>
       <c r="K410" t="n">
-        <v>-9.58904109589041</v>
+        <v>20</v>
       </c>
       <c r="L410" t="n">
         <v>2853.9</v>
@@ -21189,7 +21211,7 @@
         <v>2000</v>
       </c>
       <c r="K411" t="n">
-        <v>-2.941176470588235</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L411" t="n">
         <v>2854.1</v>
@@ -21240,7 +21262,7 @@
         <v>2005</v>
       </c>
       <c r="K412" t="n">
-        <v>-8.333333333333332</v>
+        <v>-12</v>
       </c>
       <c r="L412" t="n">
         <v>2853.7</v>
@@ -21291,7 +21313,7 @@
         <v>2007</v>
       </c>
       <c r="K413" t="n">
-        <v>-24.24242424242424</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L413" t="n">
         <v>2853.2</v>
@@ -21342,7 +21364,7 @@
         <v>2007</v>
       </c>
       <c r="K414" t="n">
-        <v>-32.25806451612903</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L414" t="n">
         <v>2852.1</v>
@@ -21393,7 +21415,7 @@
         <v>2010</v>
       </c>
       <c r="K415" t="n">
-        <v>-37.5</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L415" t="n">
         <v>2850.7</v>
@@ -21444,7 +21466,7 @@
         <v>2014</v>
       </c>
       <c r="K416" t="n">
-        <v>-17.24137931034483</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L416" t="n">
         <v>2850</v>
@@ -21495,7 +21517,7 @@
         <v>2015</v>
       </c>
       <c r="K417" t="n">
-        <v>-13.79310344827586</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L417" t="n">
         <v>2849.6</v>
@@ -21546,7 +21568,7 @@
         <v>2031</v>
       </c>
       <c r="K418" t="n">
-        <v>-30.55555555555556</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L418" t="n">
         <v>2847.5</v>
@@ -21597,7 +21619,7 @@
         <v>2041</v>
       </c>
       <c r="K419" t="n">
-        <v>-27.02702702702703</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L419" t="n">
         <v>2846</v>
@@ -21648,7 +21670,7 @@
         <v>2044</v>
       </c>
       <c r="K420" t="n">
-        <v>-10.44776119402985</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L420" t="n">
         <v>2845</v>
@@ -21699,7 +21721,7 @@
         <v>2046</v>
       </c>
       <c r="K421" t="n">
-        <v>-5.88235294117647</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L421" t="n">
         <v>2844.4</v>
@@ -21750,7 +21772,7 @@
         <v>2047</v>
       </c>
       <c r="K422" t="n">
-        <v>-8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="L422" t="n">
         <v>2844.2</v>
@@ -21801,7 +21823,7 @@
         <v>2048</v>
       </c>
       <c r="K423" t="n">
-        <v>-5.88235294117647</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L423" t="n">
         <v>2844.3</v>
@@ -21852,7 +21874,7 @@
         <v>2050</v>
       </c>
       <c r="K424" t="n">
-        <v>-12.5</v>
+        <v>15</v>
       </c>
       <c r="L424" t="n">
         <v>2844.6</v>
@@ -21903,7 +21925,7 @@
         <v>2050</v>
       </c>
       <c r="K425" t="n">
-        <v>-12.5</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L425" t="n">
         <v>2845.2</v>
@@ -21954,7 +21976,7 @@
         <v>2051</v>
       </c>
       <c r="K426" t="n">
-        <v>-6.451612903225806</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L426" t="n">
         <v>2845.5</v>
@@ -22005,7 +22027,7 @@
         <v>2059</v>
       </c>
       <c r="K427" t="n">
-        <v>-14.70588235294118</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L427" t="n">
         <v>2844.9</v>
@@ -22056,7 +22078,7 @@
         <v>2065</v>
       </c>
       <c r="K428" t="n">
-        <v>-6.849315068493151</v>
+        <v>25</v>
       </c>
       <c r="L428" t="n">
         <v>2846.5</v>
@@ -22107,7 +22129,7 @@
         <v>2066</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L429" t="n">
         <v>2847</v>
@@ -22158,7 +22180,7 @@
         <v>2068</v>
       </c>
       <c r="K430" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L430" t="n">
         <v>2847</v>
@@ -22209,7 +22231,7 @@
         <v>2068</v>
       </c>
       <c r="K431" t="n">
-        <v>-11.76470588235294</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L431" t="n">
         <v>2846.8</v>
@@ -22260,7 +22282,7 @@
         <v>2068</v>
       </c>
       <c r="K432" t="n">
-        <v>-4.761904761904762</v>
+        <v>-10</v>
       </c>
       <c r="L432" t="n">
         <v>2846.7</v>
@@ -22311,7 +22333,7 @@
         <v>2068</v>
       </c>
       <c r="K433" t="n">
-        <v>-1.639344262295082</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L433" t="n">
         <v>2846.5</v>
@@ -22362,7 +22384,7 @@
         <v>2069</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L434" t="n">
         <v>2846.2</v>
@@ -22413,7 +22435,7 @@
         <v>2069</v>
       </c>
       <c r="K435" t="n">
-        <v>5.084745762711865</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L435" t="n">
         <v>2845.9</v>
@@ -22464,7 +22486,7 @@
         <v>2069</v>
       </c>
       <c r="K436" t="n">
-        <v>-1.818181818181818</v>
+        <v>40</v>
       </c>
       <c r="L436" t="n">
         <v>2845.5</v>
@@ -22515,7 +22537,7 @@
         <v>2070</v>
       </c>
       <c r="K437" t="n">
-        <v>-1.818181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L437" t="n">
         <v>2846</v>
@@ -22566,7 +22588,7 @@
         <v>2083</v>
       </c>
       <c r="K438" t="n">
-        <v>53.84615384615385</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L438" t="n">
         <v>2847.2</v>
@@ -22617,7 +22639,7 @@
         <v>2090</v>
       </c>
       <c r="K439" t="n">
-        <v>51.02040816326531</v>
+        <v>100</v>
       </c>
       <c r="L439" t="n">
         <v>2849.2</v>
@@ -22668,7 +22690,7 @@
         <v>2099</v>
       </c>
       <c r="K440" t="n">
-        <v>56.36363636363636</v>
+        <v>100</v>
       </c>
       <c r="L440" t="n">
         <v>2852.3</v>
@@ -22719,7 +22741,7 @@
         <v>2107</v>
       </c>
       <c r="K441" t="n">
-        <v>34.42622950819672</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L441" t="n">
         <v>2854.6</v>
@@ -22770,7 +22792,7 @@
         <v>2111</v>
       </c>
       <c r="K442" t="n">
-        <v>40.625</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L442" t="n">
         <v>2857.3</v>
@@ -22821,7 +22843,7 @@
         <v>2121</v>
       </c>
       <c r="K443" t="n">
-        <v>20.54794520547945</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L443" t="n">
         <v>2859</v>
@@ -22872,7 +22894,7 @@
         <v>2121</v>
       </c>
       <c r="K444" t="n">
-        <v>18.30985915492958</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L444" t="n">
         <v>2860.6</v>
@@ -22923,7 +22945,7 @@
         <v>2136</v>
       </c>
       <c r="K445" t="n">
-        <v>32.55813953488372</v>
+        <v>46.26865671641791</v>
       </c>
       <c r="L445" t="n">
         <v>2863.7</v>
@@ -22974,7 +22996,7 @@
         <v>2143</v>
       </c>
       <c r="K446" t="n">
-        <v>21.73913043478261</v>
+        <v>31.50684931506849</v>
       </c>
       <c r="L446" t="n">
         <v>2866.1</v>
@@ -23025,7 +23047,7 @@
         <v>2149</v>
       </c>
       <c r="K447" t="n">
-        <v>37.77777777777778</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="L447" t="n">
         <v>2869</v>
@@ -23076,7 +23098,7 @@
         <v>2150</v>
       </c>
       <c r="K448" t="n">
-        <v>31.76470588235294</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L448" t="n">
         <v>2870.5</v>
@@ -23127,7 +23149,7 @@
         <v>2150</v>
       </c>
       <c r="K449" t="n">
-        <v>33.33333333333333</v>
+        <v>-1.96078431372549</v>
       </c>
       <c r="L449" t="n">
         <v>2871.3</v>
@@ -23178,7 +23200,7 @@
         <v>2150</v>
       </c>
       <c r="K450" t="n">
-        <v>36.58536585365854</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L450" t="n">
         <v>2871.2</v>
@@ -23229,7 +23251,7 @@
         <v>2150</v>
       </c>
       <c r="K451" t="n">
-        <v>36.58536585365854</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L451" t="n">
         <v>2871.9</v>
@@ -23280,7 +23302,7 @@
         <v>2152</v>
       </c>
       <c r="K452" t="n">
-        <v>38.09523809523809</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L452" t="n">
         <v>2872.4</v>
@@ -23331,7 +23353,7 @@
         <v>2152</v>
       </c>
       <c r="K453" t="n">
-        <v>38.09523809523809</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L453" t="n">
         <v>2873.9</v>
@@ -23382,7 +23404,7 @@
         <v>2153</v>
       </c>
       <c r="K454" t="n">
-        <v>38.09523809523809</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L454" t="n">
         <v>2875.5</v>
@@ -23433,7 +23455,7 @@
         <v>2153</v>
       </c>
       <c r="K455" t="n">
-        <v>38.09523809523809</v>
+        <v>80</v>
       </c>
       <c r="L455" t="n">
         <v>2875.6</v>
@@ -23484,7 +23506,7 @@
         <v>2156</v>
       </c>
       <c r="K456" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L456" t="n">
         <v>2876.1</v>
@@ -23535,7 +23557,7 @@
         <v>2158</v>
       </c>
       <c r="K457" t="n">
-        <v>34.09090909090909</v>
+        <v>25</v>
       </c>
       <c r="L457" t="n">
         <v>2876.2</v>
@@ -23586,7 +23608,7 @@
         <v>2169</v>
       </c>
       <c r="K458" t="n">
-        <v>6.976744186046512</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L458" t="n">
         <v>2875.3</v>
@@ -23637,7 +23659,7 @@
         <v>2182</v>
       </c>
       <c r="K459" t="n">
-        <v>13.04347826086956</v>
+        <v>12.5</v>
       </c>
       <c r="L459" t="n">
         <v>2875.7</v>
@@ -23688,7 +23710,7 @@
         <v>2185</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L460" t="n">
         <v>2875.8</v>
@@ -23739,7 +23761,7 @@
         <v>2191</v>
       </c>
       <c r="K461" t="n">
-        <v>2.380952380952381</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L461" t="n">
         <v>2875.3</v>
@@ -23790,7 +23812,7 @@
         <v>2193</v>
       </c>
       <c r="K462" t="n">
-        <v>-4.878048780487805</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L462" t="n">
         <v>2874.4</v>
@@ -23841,7 +23863,7 @@
         <v>2194</v>
       </c>
       <c r="K463" t="n">
-        <v>6.849315068493151</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L463" t="n">
         <v>2873.4</v>
@@ -23892,7 +23914,7 @@
         <v>2199</v>
       </c>
       <c r="K464" t="n">
-        <v>12.82051282051282</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L464" t="n">
         <v>2872.8</v>
@@ -23943,7 +23965,7 @@
         <v>2200</v>
       </c>
       <c r="K465" t="n">
-        <v>-6.25</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L465" t="n">
         <v>2872.3</v>
@@ -23994,7 +24016,7 @@
         <v>2217</v>
       </c>
       <c r="K466" t="n">
-        <v>27.02702702702703</v>
+        <v>22.03389830508474</v>
       </c>
       <c r="L466" t="n">
         <v>2873.8</v>
@@ -24045,7 +24067,7 @@
         <v>2222</v>
       </c>
       <c r="K467" t="n">
-        <v>26.02739726027397</v>
+        <v>54.71698113207547</v>
       </c>
       <c r="L467" t="n">
         <v>2875.6</v>
@@ -24096,7 +24118,7 @@
         <v>2232</v>
       </c>
       <c r="K468" t="n">
-        <v>36.58536585365854</v>
+        <v>52</v>
       </c>
       <c r="L468" t="n">
         <v>2879.5</v>
@@ -24147,7 +24169,7 @@
         <v>2233</v>
       </c>
       <c r="K469" t="n">
-        <v>34.93975903614458</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L469" t="n">
         <v>2882</v>
@@ -24198,7 +24220,7 @@
         <v>2241</v>
       </c>
       <c r="K470" t="n">
-        <v>23.07692307692308</v>
+        <v>52</v>
       </c>
       <c r="L470" t="n">
         <v>2884</v>
@@ -24249,7 +24271,7 @@
         <v>2249</v>
       </c>
       <c r="K471" t="n">
-        <v>29.29292929292929</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L471" t="n">
         <v>2887.4</v>
@@ -24300,7 +24322,7 @@
         <v>2251</v>
       </c>
       <c r="K472" t="n">
-        <v>29.29292929292929</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L472" t="n">
         <v>2891.2</v>
@@ -24351,7 +24373,7 @@
         <v>2254</v>
       </c>
       <c r="K473" t="n">
-        <v>25.49019607843137</v>
+        <v>56.36363636363636</v>
       </c>
       <c r="L473" t="n">
         <v>2894.8</v>
@@ -24402,7 +24424,7 @@
         <v>2259</v>
       </c>
       <c r="K474" t="n">
-        <v>28.30188679245283</v>
+        <v>59.32203389830508</v>
       </c>
       <c r="L474" t="n">
         <v>2898.4</v>
@@ -24453,7 +24475,7 @@
         <v>2259</v>
       </c>
       <c r="K475" t="n">
-        <v>28.30188679245283</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L475" t="n">
         <v>2901.9</v>
@@ -24504,7 +24526,7 @@
         <v>2260</v>
       </c>
       <c r="K476" t="n">
-        <v>32.69230769230769</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L476" t="n">
         <v>2903.8</v>
@@ -24555,7 +24577,7 @@
         <v>2261</v>
       </c>
       <c r="K477" t="n">
-        <v>30.09708737864078</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L477" t="n">
         <v>2905.1</v>
@@ -24606,7 +24628,7 @@
         <v>2261</v>
       </c>
       <c r="K478" t="n">
-        <v>45.65217391304348</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L478" t="n">
         <v>2905.4</v>
@@ -24657,7 +24679,7 @@
         <v>2267</v>
       </c>
       <c r="K479" t="n">
-        <v>41.17647058823529</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L479" t="n">
         <v>2906.4</v>
@@ -24708,7 +24730,7 @@
         <v>2275</v>
       </c>
       <c r="K480" t="n">
-        <v>51.11111111111111</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L480" t="n">
         <v>2909</v>
@@ -24759,7 +24781,7 @@
         <v>2277</v>
       </c>
       <c r="K481" t="n">
-        <v>58.13953488372093</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L481" t="n">
         <v>2910.6</v>
@@ -24810,7 +24832,7 @@
         <v>2286</v>
       </c>
       <c r="K482" t="n">
-        <v>46.23655913978494</v>
+        <v>25</v>
       </c>
       <c r="L482" t="n">
         <v>2911.1</v>
@@ -24861,7 +24883,7 @@
         <v>2287</v>
       </c>
       <c r="K483" t="n">
-        <v>48.38709677419355</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L483" t="n">
         <v>2912</v>
@@ -24912,7 +24934,7 @@
         <v>2287</v>
       </c>
       <c r="K484" t="n">
-        <v>45.45454545454545</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L484" t="n">
         <v>2912.4</v>
@@ -24963,7 +24985,7 @@
         <v>2287</v>
       </c>
       <c r="K485" t="n">
-        <v>44.82758620689656</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L485" t="n">
         <v>2912.8</v>
@@ -25014,7 +25036,7 @@
         <v>2295</v>
       </c>
       <c r="K486" t="n">
-        <v>38.46153846153847</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L486" t="n">
         <v>2913.9</v>
@@ -25065,7 +25087,7 @@
         <v>2298</v>
       </c>
       <c r="K487" t="n">
-        <v>36.84210526315789</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="L487" t="n">
         <v>2915.4</v>
@@ -25116,7 +25138,7 @@
         <v>2303</v>
       </c>
       <c r="K488" t="n">
-        <v>18.30985915492958</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L488" t="n">
         <v>2916.4</v>
@@ -25167,7 +25189,7 @@
         <v>2313</v>
       </c>
       <c r="K489" t="n">
-        <v>30</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L489" t="n">
         <v>2917.8</v>
@@ -25218,7 +25240,7 @@
         <v>2316</v>
       </c>
       <c r="K490" t="n">
-        <v>38.66666666666666</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L490" t="n">
         <v>2918.1</v>
@@ -25269,7 +25291,7 @@
         <v>2319</v>
       </c>
       <c r="K491" t="n">
-        <v>34.28571428571428</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L491" t="n">
         <v>2918.9</v>
@@ -25320,7 +25342,7 @@
         <v>2320</v>
       </c>
       <c r="K492" t="n">
-        <v>30.43478260869566</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L492" t="n">
         <v>2920.5</v>
@@ -25371,7 +25393,7 @@
         <v>2320</v>
       </c>
       <c r="K493" t="n">
-        <v>36.36363636363637</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L493" t="n">
         <v>2922</v>
@@ -25422,7 +25444,7 @@
         <v>2322</v>
       </c>
       <c r="K494" t="n">
-        <v>33.33333333333333</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L494" t="n">
         <v>2923.7</v>
@@ -25473,7 +25495,7 @@
         <v>2328</v>
       </c>
       <c r="K495" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L495" t="n">
         <v>2924.8</v>
@@ -25524,7 +25546,7 @@
         <v>2337</v>
       </c>
       <c r="K496" t="n">
-        <v>29.87012987012987</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L496" t="n">
         <v>2926</v>
@@ -25575,7 +25597,7 @@
         <v>2340</v>
       </c>
       <c r="K497" t="n">
-        <v>26.58227848101265</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L497" t="n">
         <v>2926.6</v>
@@ -25626,7 +25648,7 @@
         <v>2340</v>
       </c>
       <c r="K498" t="n">
-        <v>26.58227848101265</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L498" t="n">
         <v>2927.7</v>
@@ -25677,7 +25699,7 @@
         <v>2349</v>
       </c>
       <c r="K499" t="n">
-        <v>7.317073170731707</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L499" t="n">
         <v>2926.9</v>
@@ -25728,7 +25750,7 @@
         <v>2361</v>
       </c>
       <c r="K500" t="n">
-        <v>11.62790697674419</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L500" t="n">
         <v>2927.6</v>
@@ -25779,7 +25801,7 @@
         <v>2367</v>
       </c>
       <c r="K501" t="n">
-        <v>6.666666666666667</v>
+        <v>-2.127659574468085</v>
       </c>
       <c r="L501" t="n">
         <v>2927.4</v>
@@ -25830,7 +25852,7 @@
         <v>2368</v>
       </c>
       <c r="K502" t="n">
-        <v>19.51219512195122</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>2927.4</v>
@@ -25881,7 +25903,7 @@
         <v>2375</v>
       </c>
       <c r="K503" t="n">
-        <v>25</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L503" t="n">
         <v>2928.1</v>
@@ -25932,7 +25954,7 @@
         <v>2388</v>
       </c>
       <c r="K504" t="n">
-        <v>8.91089108910891</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>2927.3</v>
@@ -25983,7 +26005,7 @@
         <v>2391</v>
       </c>
       <c r="K505" t="n">
-        <v>5.769230769230769</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L505" t="n">
         <v>2926.8</v>
@@ -26034,7 +26056,7 @@
         <v>2391</v>
       </c>
       <c r="K506" t="n">
-        <v>-2.083333333333333</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L506" t="n">
         <v>2925.4</v>
@@ -26085,7 +26107,7 @@
         <v>2396</v>
       </c>
       <c r="K507" t="n">
-        <v>-10.20408163265306</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L507" t="n">
         <v>2923.8</v>
@@ -26136,7 +26158,7 @@
         <v>2397</v>
       </c>
       <c r="K508" t="n">
-        <v>-6.382978723404255</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L508" t="n">
         <v>2922.1</v>
@@ -26187,7 +26209,7 @@
         <v>2398</v>
       </c>
       <c r="K509" t="n">
-        <v>-17.64705882352941</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L509" t="n">
         <v>2921.4</v>
@@ -26238,7 +26260,7 @@
         <v>2406</v>
       </c>
       <c r="K510" t="n">
-        <v>-4.444444444444445</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L510" t="n">
         <v>2920.3</v>
@@ -26289,7 +26311,7 @@
         <v>2406</v>
       </c>
       <c r="K511" t="n">
-        <v>-8.045977011494253</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L511" t="n">
         <v>2919.8</v>
@@ -26340,7 +26362,7 @@
         <v>2412</v>
       </c>
       <c r="K512" t="n">
-        <v>-13.04347826086956</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L512" t="n">
         <v>2918.6</v>
@@ -26391,7 +26413,7 @@
         <v>2418</v>
       </c>
       <c r="K513" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>2917.3</v>
@@ -26442,7 +26464,7 @@
         <v>2418</v>
       </c>
       <c r="K514" t="n">
-        <v>-8.333333333333332</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L514" t="n">
         <v>2917.3</v>
@@ -26493,7 +26515,7 @@
         <v>2418</v>
       </c>
       <c r="K515" t="n">
-        <v>-2.222222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L515" t="n">
         <v>2917.6</v>
@@ -26544,7 +26566,7 @@
         <v>2418</v>
       </c>
       <c r="K516" t="n">
-        <v>-13.58024691358025</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L516" t="n">
         <v>2917.9</v>
@@ -26595,7 +26617,7 @@
         <v>2418</v>
       </c>
       <c r="K517" t="n">
-        <v>-10.25641025641026</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L517" t="n">
         <v>2918.7</v>
@@ -26646,7 +26668,7 @@
         <v>2423</v>
       </c>
       <c r="K518" t="n">
-        <v>-15.66265060240964</v>
+        <v>12</v>
       </c>
       <c r="L518" t="n">
         <v>2919.1</v>
@@ -26697,7 +26719,7 @@
         <v>2424</v>
       </c>
       <c r="K519" t="n">
-        <v>-4</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L519" t="n">
         <v>2919.5</v>
@@ -26748,7 +26770,7 @@
         <v>2425</v>
       </c>
       <c r="K520" t="n">
-        <v>-25</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L520" t="n">
         <v>2919</v>
@@ -26799,7 +26821,7 @@
         <v>2425</v>
       </c>
       <c r="K521" t="n">
-        <v>-17.24137931034483</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L521" t="n">
         <v>2918.5</v>
@@ -26850,7 +26872,7 @@
         <v>2426</v>
       </c>
       <c r="K522" t="n">
-        <v>-20.68965517241379</v>
+        <v>-75</v>
       </c>
       <c r="L522" t="n">
         <v>2918.5</v>
@@ -26901,7 +26923,7 @@
         <v>2426</v>
       </c>
       <c r="K523" t="n">
-        <v>-37.25490196078432</v>
+        <v>-75</v>
       </c>
       <c r="L523" t="n">
         <v>2917.9</v>
@@ -26952,7 +26974,7 @@
         <v>2429</v>
       </c>
       <c r="K524" t="n">
-        <v>-21.95121951219512</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L524" t="n">
         <v>2917</v>
@@ -27003,7 +27025,7 @@
         <v>2430</v>
       </c>
       <c r="K525" t="n">
-        <v>-17.94871794871795</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L525" t="n">
         <v>2916</v>
@@ -27054,7 +27076,7 @@
         <v>2441</v>
       </c>
       <c r="K526" t="n">
-        <v>-36</v>
+        <v>-91.30434782608695</v>
       </c>
       <c r="L526" t="n">
         <v>2913.9</v>
@@ -27105,7 +27127,7 @@
         <v>2441</v>
       </c>
       <c r="K527" t="n">
-        <v>-28.88888888888889</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L527" t="n">
         <v>2911.8</v>
@@ -27156,7 +27178,7 @@
         <v>2441</v>
       </c>
       <c r="K528" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L528" t="n">
         <v>2910.2</v>
@@ -27207,7 +27229,7 @@
         <v>2442</v>
       </c>
       <c r="K529" t="n">
-        <v>-31.81818181818182</v>
+        <v>-100</v>
       </c>
       <c r="L529" t="n">
         <v>2908.4</v>
@@ -27258,7 +27280,7 @@
         <v>2443</v>
       </c>
       <c r="K530" t="n">
-        <v>-62.16216216216216</v>
+        <v>-100</v>
       </c>
       <c r="L530" t="n">
         <v>2906.6</v>
@@ -27309,7 +27331,7 @@
         <v>2450</v>
       </c>
       <c r="K531" t="n">
-        <v>-36.36363636363637</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L531" t="n">
         <v>2905.5</v>
@@ -27360,7 +27382,7 @@
         <v>2456</v>
       </c>
       <c r="K532" t="n">
-        <v>-36.36363636363637</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L532" t="n">
         <v>2903.9</v>
@@ -27411,7 +27433,7 @@
         <v>2466</v>
       </c>
       <c r="K533" t="n">
-        <v>-25</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L533" t="n">
         <v>2903.3</v>
@@ -27462,7 +27484,7 @@
         <v>2467</v>
       </c>
       <c r="K534" t="n">
-        <v>-22.44897959183674</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L534" t="n">
         <v>2903.1</v>
@@ -27513,7 +27535,7 @@
         <v>2474</v>
       </c>
       <c r="K535" t="n">
-        <v>-7.142857142857142</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L535" t="n">
         <v>2903.7</v>
@@ -27564,7 +27586,7 @@
         <v>2481</v>
       </c>
       <c r="K536" t="n">
-        <v>4.761904761904762</v>
+        <v>60</v>
       </c>
       <c r="L536" t="n">
         <v>2906.1</v>
@@ -27615,7 +27637,7 @@
         <v>2483</v>
       </c>
       <c r="K537" t="n">
-        <v>7.692307692307693</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L537" t="n">
         <v>2908.7</v>
@@ -27666,7 +27688,7 @@
         <v>2484</v>
       </c>
       <c r="K538" t="n">
-        <v>18.0327868852459</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L538" t="n">
         <v>2911.4</v>
@@ -27717,7 +27739,7 @@
         <v>2484</v>
       </c>
       <c r="K539" t="n">
-        <v>16.66666666666666</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L539" t="n">
         <v>2914.2</v>
@@ -27768,7 +27790,7 @@
         <v>2486</v>
       </c>
       <c r="K540" t="n">
-        <v>14.75409836065574</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L540" t="n">
         <v>2916.9</v>
@@ -27819,7 +27841,7 @@
         <v>2489</v>
       </c>
       <c r="K541" t="n">
-        <v>18.75</v>
+        <v>87.87878787878788</v>
       </c>
       <c r="L541" t="n">
         <v>2919.2</v>
@@ -27870,7 +27892,7 @@
         <v>2491</v>
       </c>
       <c r="K542" t="n">
-        <v>23.07692307692308</v>
+        <v>84</v>
       </c>
       <c r="L542" t="n">
         <v>2922.3</v>
@@ -27921,7 +27943,7 @@
         <v>2496</v>
       </c>
       <c r="K543" t="n">
-        <v>28.57142857142857</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L543" t="n">
         <v>2924.9</v>
@@ -27972,7 +27994,7 @@
         <v>2499</v>
       </c>
       <c r="K544" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="L544" t="n">
         <v>2927.1</v>
@@ -28023,7 +28045,7 @@
         <v>2499</v>
       </c>
       <c r="K545" t="n">
-        <v>30.43478260869566</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L545" t="n">
         <v>2928.6</v>
@@ -28074,7 +28096,7 @@
         <v>2504</v>
       </c>
       <c r="K546" t="n">
-        <v>58.73015873015873</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L546" t="n">
         <v>2929.9</v>
@@ -28125,7 +28147,7 @@
         <v>2504</v>
       </c>
       <c r="K547" t="n">
-        <v>58.73015873015873</v>
+        <v>50</v>
       </c>
       <c r="L547" t="n">
         <v>2931</v>
@@ -28176,7 +28198,7 @@
         <v>2516</v>
       </c>
       <c r="K548" t="n">
-        <v>33.33333333333333</v>
+        <v>-6.25</v>
       </c>
       <c r="L548" t="n">
         <v>2930.8</v>
@@ -28227,7 +28249,7 @@
         <v>2517</v>
       </c>
       <c r="K549" t="n">
-        <v>36</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L549" t="n">
         <v>2930.7</v>
@@ -28278,7 +28300,7 @@
         <v>2517</v>
       </c>
       <c r="K550" t="n">
-        <v>37.83783783783784</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L550" t="n">
         <v>2930.8</v>
@@ -28329,7 +28351,7 @@
         <v>2517</v>
       </c>
       <c r="K551" t="n">
-        <v>31.34328358208955</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L551" t="n">
         <v>2930.6</v>
@@ -28380,7 +28402,7 @@
         <v>2517</v>
       </c>
       <c r="K552" t="n">
-        <v>44.26229508196721</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L552" t="n">
         <v>2930.2</v>
@@ -28431,7 +28453,7 @@
         <v>2517</v>
       </c>
       <c r="K553" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L553" t="n">
         <v>2929.3</v>
@@ -28482,7 +28504,7 @@
         <v>2518</v>
       </c>
       <c r="K554" t="n">
-        <v>33.33333333333333</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L554" t="n">
         <v>2928.8</v>
@@ -28533,7 +28555,7 @@
         <v>2528</v>
       </c>
       <c r="K555" t="n">
-        <v>37.03703703703704</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>2929.3</v>
@@ -28584,7 +28606,7 @@
         <v>2528</v>
       </c>
       <c r="K556" t="n">
-        <v>27.65957446808511</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>2929.3</v>
@@ -28635,7 +28657,7 @@
         <v>2528</v>
       </c>
       <c r="K557" t="n">
-        <v>24.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="L557" t="n">
         <v>2929.3</v>
@@ -28686,7 +28708,7 @@
         <v>2530</v>
       </c>
       <c r="K558" t="n">
-        <v>26.08695652173913</v>
+        <v>100</v>
       </c>
       <c r="L558" t="n">
         <v>2930.7</v>
@@ -28737,7 +28759,7 @@
         <v>2537</v>
       </c>
       <c r="K559" t="n">
-        <v>35.84905660377358</v>
+        <v>100</v>
       </c>
       <c r="L559" t="n">
         <v>2932.7</v>
@@ -28788,7 +28810,7 @@
         <v>2537</v>
       </c>
       <c r="K560" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L560" t="n">
         <v>2934.7</v>
@@ -28839,7 +28861,7 @@
         <v>2541</v>
       </c>
       <c r="K561" t="n">
-        <v>42.30769230769231</v>
+        <v>100</v>
       </c>
       <c r="L561" t="n">
         <v>2937.1</v>
@@ -28890,7 +28912,7 @@
         <v>2551</v>
       </c>
       <c r="K562" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L562" t="n">
         <v>2940.5</v>
@@ -28941,7 +28963,7 @@
         <v>2551</v>
       </c>
       <c r="K563" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L563" t="n">
         <v>2943.9</v>
@@ -28992,7 +29014,7 @@
         <v>2553</v>
       </c>
       <c r="K564" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L564" t="n">
         <v>2947.4</v>
@@ -29043,7 +29065,7 @@
         <v>2553</v>
       </c>
       <c r="K565" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L565" t="n">
         <v>2949.9</v>
@@ -29094,7 +29116,7 @@
         <v>2555</v>
       </c>
       <c r="K566" t="n">
-        <v>45.09803921568628</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="L566" t="n">
         <v>2952.2</v>
@@ -29145,7 +29167,7 @@
         <v>2560</v>
       </c>
       <c r="K567" t="n">
-        <v>32.14285714285715</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L567" t="n">
         <v>2954</v>
@@ -29196,7 +29218,7 @@
         <v>2562</v>
       </c>
       <c r="K568" t="n">
-        <v>60.86956521739131</v>
+        <v>28</v>
       </c>
       <c r="L568" t="n">
         <v>2955.4</v>
@@ -29247,7 +29269,7 @@
         <v>2565</v>
       </c>
       <c r="K569" t="n">
-        <v>50</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L569" t="n">
         <v>2955.8</v>
@@ -29298,7 +29320,7 @@
         <v>2570</v>
       </c>
       <c r="K570" t="n">
-        <v>35.84905660377358</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L570" t="n">
         <v>2955.7</v>
@@ -29349,7 +29371,7 @@
         <v>2573</v>
       </c>
       <c r="K571" t="n">
-        <v>28.57142857142857</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L571" t="n">
         <v>2954.9</v>
@@ -29400,7 +29422,7 @@
         <v>2573</v>
       </c>
       <c r="K572" t="n">
-        <v>28.57142857142857</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L572" t="n">
         <v>2953.1</v>
@@ -29451,7 +29473,7 @@
         <v>2576</v>
       </c>
       <c r="K573" t="n">
-        <v>22.03389830508474</v>
+        <v>-100</v>
       </c>
       <c r="L573" t="n">
         <v>2951</v>
@@ -29502,7 +29524,7 @@
         <v>2589</v>
       </c>
       <c r="K574" t="n">
-        <v>-1.408450704225352</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>2947.4</v>
@@ -29553,7 +29575,7 @@
         <v>2591</v>
       </c>
       <c r="K575" t="n">
-        <v>-14.28571428571428</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L575" t="n">
         <v>2944</v>
@@ -29604,7 +29626,7 @@
         <v>2591</v>
       </c>
       <c r="K576" t="n">
-        <v>-14.28571428571428</v>
+        <v>-87.09677419354838</v>
       </c>
       <c r="L576" t="n">
         <v>2940.8</v>
@@ -29655,7 +29677,7 @@
         <v>2591</v>
       </c>
       <c r="K577" t="n">
-        <v>-14.28571428571428</v>
+        <v>-86.20689655172413</v>
       </c>
       <c r="L577" t="n">
         <v>2938.1</v>
@@ -29706,7 +29728,7 @@
         <v>2597</v>
       </c>
       <c r="K578" t="n">
-        <v>-25.37313432835821</v>
+        <v>-87.5</v>
       </c>
       <c r="L578" t="n">
         <v>2935</v>
@@ -29757,7 +29779,7 @@
         <v>2598</v>
       </c>
       <c r="K579" t="n">
-        <v>-37.70491803278689</v>
+        <v>-78.57142857142857</v>
       </c>
       <c r="L579" t="n">
         <v>2932.3</v>
@@ -29808,7 +29830,7 @@
         <v>2598</v>
       </c>
       <c r="K580" t="n">
-        <v>-37.70491803278689</v>
+        <v>-76</v>
       </c>
       <c r="L580" t="n">
         <v>2930.1</v>
@@ -29859,7 +29881,7 @@
         <v>2598</v>
       </c>
       <c r="K581" t="n">
-        <v>-47.36842105263158</v>
+        <v>-76</v>
       </c>
       <c r="L581" t="n">
         <v>2928.2</v>
@@ -29910,7 +29932,7 @@
         <v>2599</v>
       </c>
       <c r="K582" t="n">
-        <v>-75</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L582" t="n">
         <v>2926.4</v>
@@ -29961,7 +29983,7 @@
         <v>2608</v>
       </c>
       <c r="K583" t="n">
-        <v>-47.36842105263158</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L583" t="n">
         <v>2925.8</v>
@@ -30012,7 +30034,7 @@
         <v>2611</v>
       </c>
       <c r="K584" t="n">
-        <v>-55.17241379310344</v>
+        <v>10</v>
       </c>
       <c r="L584" t="n">
         <v>2926.2</v>
@@ -30063,7 +30085,7 @@
         <v>2619</v>
       </c>
       <c r="K585" t="n">
-        <v>-36.36363636363637</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L585" t="n">
         <v>2927.2</v>
@@ -30114,7 +30136,7 @@
         <v>2623</v>
       </c>
       <c r="K586" t="n">
-        <v>-26.47058823529412</v>
+        <v>43.75</v>
       </c>
       <c r="L586" t="n">
         <v>2928.6</v>
@@ -30165,7 +30187,7 @@
         <v>2634</v>
       </c>
       <c r="K587" t="n">
-        <v>-32.43243243243244</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L587" t="n">
         <v>2928.9</v>
@@ -30216,7 +30238,7 @@
         <v>2644</v>
       </c>
       <c r="K588" t="n">
-        <v>-14.63414634146341</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L588" t="n">
         <v>2930.8</v>
@@ -30267,7 +30289,7 @@
         <v>2654</v>
       </c>
       <c r="K589" t="n">
-        <v>-21.34831460674157</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L589" t="n">
         <v>2931.6</v>
@@ -30318,7 +30340,7 @@
         <v>2662</v>
       </c>
       <c r="K590" t="n">
-        <v>-23.91304347826087</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>2931.6</v>
@@ -30369,7 +30391,7 @@
         <v>2662</v>
       </c>
       <c r="K591" t="n">
-        <v>-21.34831460674157</v>
+        <v>-1.587301587301587</v>
       </c>
       <c r="L591" t="n">
         <v>2931.6</v>
@@ -30420,7 +30442,7 @@
         <v>2665</v>
       </c>
       <c r="K592" t="n">
-        <v>-23.91304347826087</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L592" t="n">
         <v>2931.2</v>
@@ -30471,7 +30493,7 @@
         <v>2667</v>
       </c>
       <c r="K593" t="n">
-        <v>-18.68131868131868</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L593" t="n">
         <v>2930.1</v>
@@ -30522,7 +30544,7 @@
         <v>2670</v>
       </c>
       <c r="K594" t="n">
-        <v>-1.234567901234568</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L594" t="n">
         <v>2929.6</v>
@@ -30573,7 +30595,7 @@
         <v>2673</v>
       </c>
       <c r="K595" t="n">
-        <v>-7.317073170731707</v>
+        <v>-40</v>
       </c>
       <c r="L595" t="n">
         <v>2928</v>
@@ -30624,7 +30646,7 @@
         <v>2673</v>
       </c>
       <c r="K596" t="n">
-        <v>-7.317073170731707</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L596" t="n">
         <v>2926</v>
@@ -30675,7 +30697,7 @@
         <v>2674</v>
       </c>
       <c r="K597" t="n">
-        <v>-6.024096385542169</v>
+        <v>-60</v>
       </c>
       <c r="L597" t="n">
         <v>2925.2</v>
@@ -30726,7 +30748,7 @@
         <v>2674</v>
       </c>
       <c r="K598" t="n">
-        <v>1.298701298701299</v>
+        <v>-40</v>
       </c>
       <c r="L598" t="n">
         <v>2923.4</v>
@@ -30828,7 +30850,7 @@
         <v>2678</v>
       </c>
       <c r="K600" t="n">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="L600" t="n">
         <v>2922.2</v>
@@ -30879,7 +30901,7 @@
         <v>2678</v>
       </c>
       <c r="K601" t="n">
-        <v>-5</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L601" t="n">
         <v>2921.8</v>
@@ -30930,7 +30952,7 @@
         <v>2680</v>
       </c>
       <c r="K602" t="n">
-        <v>-8.641975308641975</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L602" t="n">
         <v>2921.5</v>
@@ -30981,7 +31003,7 @@
         <v>2680</v>
       </c>
       <c r="K603" t="n">
-        <v>-22.22222222222222</v>
+        <v>-80</v>
       </c>
       <c r="L603" t="n">
         <v>2921</v>
@@ -31032,7 +31054,7 @@
         <v>2680</v>
       </c>
       <c r="K604" t="n">
-        <v>-18.84057971014493</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L604" t="n">
         <v>2920.2</v>
@@ -31083,7 +31105,7 @@
         <v>2680</v>
       </c>
       <c r="K605" t="n">
-        <v>-34.42622950819672</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L605" t="n">
         <v>2919.7</v>
@@ -31134,7 +31156,7 @@
         <v>2682</v>
       </c>
       <c r="K606" t="n">
-        <v>-45.76271186440678</v>
+        <v>-100</v>
       </c>
       <c r="L606" t="n">
         <v>2919</v>
@@ -31185,7 +31207,7 @@
         <v>2682</v>
       </c>
       <c r="K607" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L607" t="n">
         <v>2918.2</v>
@@ -31236,7 +31258,7 @@
         <v>2689</v>
       </c>
       <c r="K608" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L608" t="n">
         <v>2916.7</v>
@@ -31287,7 +31309,7 @@
         <v>2690</v>
       </c>
       <c r="K609" t="n">
-        <v>-61.11111111111111</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L609" t="n">
         <v>2915.3</v>
@@ -31338,7 +31360,7 @@
         <v>2700</v>
       </c>
       <c r="K610" t="n">
-        <v>-10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L610" t="n">
         <v>2915.3</v>
@@ -31389,7 +31411,7 @@
         <v>2710</v>
       </c>
       <c r="K611" t="n">
-        <v>-29.16666666666667</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L611" t="n">
         <v>2914.3</v>
@@ -31440,7 +31462,7 @@
         <v>2714</v>
       </c>
       <c r="K612" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L612" t="n">
         <v>2913.9</v>
@@ -31491,7 +31513,7 @@
         <v>2714</v>
       </c>
       <c r="K613" t="n">
-        <v>-19.14893617021277</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L613" t="n">
         <v>2913.5</v>
@@ -31542,7 +31564,7 @@
         <v>2714</v>
       </c>
       <c r="K614" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L614" t="n">
         <v>2913.1</v>
@@ -31593,7 +31615,7 @@
         <v>2714</v>
       </c>
       <c r="K615" t="n">
-        <v>-21.95121951219512</v>
+        <v>-6.25</v>
       </c>
       <c r="L615" t="n">
         <v>2912.7</v>
@@ -31644,7 +31666,7 @@
         <v>2714</v>
       </c>
       <c r="K616" t="n">
-        <v>-21.95121951219512</v>
+        <v>-6.25</v>
       </c>
       <c r="L616" t="n">
         <v>2912.5</v>
@@ -31695,7 +31717,7 @@
         <v>2714</v>
       </c>
       <c r="K617" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="L617" t="n">
         <v>2912.3</v>
@@ -31746,7 +31768,7 @@
         <v>2714</v>
       </c>
       <c r="K618" t="n">
-        <v>-25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L618" t="n">
         <v>2912.8</v>
@@ -31797,7 +31819,7 @@
         <v>2718</v>
       </c>
       <c r="K619" t="n">
-        <v>-31.81818181818182</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L619" t="n">
         <v>2912.8</v>
@@ -31848,7 +31870,7 @@
         <v>2730</v>
       </c>
       <c r="K620" t="n">
-        <v>-42.30769230769231</v>
+        <v>-60</v>
       </c>
       <c r="L620" t="n">
         <v>2910.6</v>
@@ -31899,7 +31921,7 @@
         <v>2747</v>
       </c>
       <c r="K621" t="n">
-        <v>-56.52173913043478</v>
+        <v>-100</v>
       </c>
       <c r="L621" t="n">
         <v>2907.7</v>
@@ -31950,7 +31972,7 @@
         <v>2755</v>
       </c>
       <c r="K622" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L622" t="n">
         <v>2903.6</v>
@@ -32001,7 +32023,7 @@
         <v>2756</v>
       </c>
       <c r="K623" t="n">
-        <v>-57.89473684210527</v>
+        <v>-95.23809523809523</v>
       </c>
       <c r="L623" t="n">
         <v>2899.6</v>
@@ -32052,7 +32074,7 @@
         <v>2769</v>
       </c>
       <c r="K624" t="n">
-        <v>-34.83146067415731</v>
+        <v>-49.09090909090909</v>
       </c>
       <c r="L624" t="n">
         <v>2896.9</v>
@@ -32103,7 +32125,7 @@
         <v>2779</v>
       </c>
       <c r="K625" t="n">
-        <v>-41.41414141414141</v>
+        <v>-56.92307692307692</v>
       </c>
       <c r="L625" t="n">
         <v>2893.2</v>
@@ -32154,7 +32176,7 @@
         <v>2788</v>
       </c>
       <c r="K626" t="n">
-        <v>-45.28301886792453</v>
+        <v>-62.16216216216216</v>
       </c>
       <c r="L626" t="n">
         <v>2888.6</v>
@@ -32205,7 +32227,7 @@
         <v>2792</v>
       </c>
       <c r="K627" t="n">
-        <v>-40</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L627" t="n">
         <v>2884.4</v>
@@ -32256,7 +32278,7 @@
         <v>2792</v>
       </c>
       <c r="K628" t="n">
-        <v>-35.92233009708738</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L628" t="n">
         <v>2880.2</v>
@@ -32307,7 +32329,7 @@
         <v>2803</v>
       </c>
       <c r="K629" t="n">
-        <v>-43.36283185840708</v>
+        <v>-50.68493150684932</v>
       </c>
       <c r="L629" t="n">
         <v>2875.3</v>
@@ -32358,7 +32380,7 @@
         <v>2807</v>
       </c>
       <c r="K630" t="n">
-        <v>-58.87850467289719</v>
+        <v>-40</v>
       </c>
       <c r="L630" t="n">
         <v>2871.2</v>
@@ -32409,7 +32431,7 @@
         <v>2810</v>
       </c>
       <c r="K631" t="n">
-        <v>-56.00000000000001</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L631" t="n">
         <v>2868.5</v>
@@ -32460,7 +32482,7 @@
         <v>2810</v>
       </c>
       <c r="K632" t="n">
-        <v>-62.5</v>
+        <v>-37.03703703703704</v>
       </c>
       <c r="L632" t="n">
         <v>2866.6</v>
@@ -32511,7 +32533,7 @@
         <v>2814</v>
       </c>
       <c r="K633" t="n">
-        <v>-64</v>
+        <v>-82.22222222222221</v>
       </c>
       <c r="L633" t="n">
         <v>2864.2</v>
@@ -32562,7 +32584,7 @@
         <v>2816</v>
       </c>
       <c r="K634" t="n">
-        <v>-64.70588235294117</v>
+        <v>-78.37837837837837</v>
       </c>
       <c r="L634" t="n">
         <v>2860.3</v>
@@ -32613,7 +32635,7 @@
         <v>2829</v>
       </c>
       <c r="K635" t="n">
-        <v>-46.08695652173913</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L635" t="n">
         <v>2858.7</v>
@@ -32664,7 +32686,7 @@
         <v>2834</v>
       </c>
       <c r="K636" t="n">
-        <v>-48.33333333333334</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L636" t="n">
         <v>2857.5</v>
@@ -32715,7 +32737,7 @@
         <v>2838</v>
       </c>
       <c r="K637" t="n">
-        <v>-43.54838709677419</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L637" t="n">
         <v>2856.3</v>
@@ -32766,7 +32788,7 @@
         <v>2839</v>
       </c>
       <c r="K638" t="n">
-        <v>-44</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L638" t="n">
         <v>2855</v>
@@ -32817,7 +32839,7 @@
         <v>2841</v>
       </c>
       <c r="K639" t="n">
-        <v>-39.83739837398374</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L639" t="n">
         <v>2855</v>
@@ -32868,7 +32890,7 @@
         <v>2843</v>
       </c>
       <c r="K640" t="n">
-        <v>-34.51327433628318</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L640" t="n">
         <v>2855.2</v>
@@ -32919,7 +32941,7 @@
         <v>2843</v>
       </c>
       <c r="K641" t="n">
-        <v>-22.91666666666666</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L641" t="n">
         <v>2855.7</v>
@@ -32970,7 +32992,7 @@
         <v>2846</v>
       </c>
       <c r="K642" t="n">
-        <v>-18.68131868131868</v>
+        <v>18.75</v>
       </c>
       <c r="L642" t="n">
         <v>2855.9</v>
@@ -33021,7 +33043,7 @@
         <v>2846</v>
       </c>
       <c r="K643" t="n">
-        <v>-20</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L643" t="n">
         <v>2856.5</v>
@@ -33072,7 +33094,7 @@
         <v>2856</v>
       </c>
       <c r="K644" t="n">
-        <v>-47.12643678160919</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L644" t="n">
         <v>2856.3</v>
@@ -33123,7 +33145,7 @@
         <v>2875</v>
       </c>
       <c r="K645" t="n">
-        <v>-52.08333333333334</v>
+        <v>-70.73170731707317</v>
       </c>
       <c r="L645" t="n">
         <v>2852.9</v>
@@ -33174,7 +33196,7 @@
         <v>2902</v>
       </c>
       <c r="K646" t="n">
-        <v>-59.64912280701754</v>
+        <v>-93.75</v>
       </c>
       <c r="L646" t="n">
         <v>2847.3</v>
@@ -33225,7 +33247,7 @@
         <v>2922</v>
       </c>
       <c r="K647" t="n">
-        <v>-70.76923076923077</v>
+        <v>-95.18072289156626</v>
       </c>
       <c r="L647" t="n">
         <v>2839.3</v>
@@ -33276,7 +33298,7 @@
         <v>2941</v>
       </c>
       <c r="K648" t="n">
-        <v>-48.99328859060403</v>
+        <v>-62</v>
       </c>
       <c r="L648" t="n">
         <v>2833.3</v>
@@ -33327,7 +33349,7 @@
         <v>2947</v>
       </c>
       <c r="K649" t="n">
-        <v>-47.22222222222222</v>
+        <v>-63.46153846153846</v>
       </c>
       <c r="L649" t="n">
         <v>2826.5</v>
@@ -33378,7 +33400,7 @@
         <v>2960</v>
       </c>
       <c r="K650" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.2991452991453</v>
       </c>
       <c r="L650" t="n">
         <v>2821.2</v>
@@ -33429,7 +33451,7 @@
         <v>2962</v>
       </c>
       <c r="K651" t="n">
-        <v>-30.26315789473684</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L651" t="n">
         <v>2816.1</v>
@@ -33480,7 +33502,7 @@
         <v>2962</v>
       </c>
       <c r="K652" t="n">
-        <v>-30.26315789473684</v>
+        <v>-41.37931034482759</v>
       </c>
       <c r="L652" t="n">
         <v>2811.3</v>
@@ -33531,7 +33553,7 @@
         <v>2962</v>
       </c>
       <c r="K653" t="n">
-        <v>-28.37837837837838</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L653" t="n">
         <v>2806.5</v>
@@ -33582,7 +33604,7 @@
         <v>2984</v>
       </c>
       <c r="K654" t="n">
-        <v>-36.90476190476191</v>
+        <v>-37.61467889908257</v>
       </c>
       <c r="L654" t="n">
         <v>2800.5</v>
@@ -33633,7 +33655,7 @@
         <v>3038</v>
       </c>
       <c r="K655" t="n">
-        <v>-10.04784688995215</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L655" t="n">
         <v>2801.8</v>
@@ -33684,7 +33706,7 @@
         <v>3062</v>
       </c>
       <c r="K656" t="n">
-        <v>-17.5438596491228</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L656" t="n">
         <v>2803.4</v>
@@ -33735,7 +33757,7 @@
         <v>3062</v>
       </c>
       <c r="K657" t="n">
-        <v>-19.64285714285714</v>
+        <v>14.0495867768595</v>
       </c>
       <c r="L657" t="n">
         <v>2807</v>
@@ -33786,7 +33808,7 @@
         <v>3069</v>
       </c>
       <c r="K658" t="n">
-        <v>-15.65217391304348</v>
+        <v>24.59016393442623</v>
       </c>
       <c r="L658" t="n">
         <v>2809.4</v>
@@ -33837,7 +33859,7 @@
         <v>3074</v>
       </c>
       <c r="K659" t="n">
-        <v>-18.4549356223176</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L659" t="n">
         <v>2811.9</v>
@@ -33888,7 +33910,7 @@
         <v>3075</v>
       </c>
       <c r="K660" t="n">
-        <v>-17.24137931034483</v>
+        <v>9.734513274336283</v>
       </c>
       <c r="L660" t="n">
         <v>2813.2</v>
@@ -33939,7 +33961,7 @@
         <v>3076</v>
       </c>
       <c r="K661" t="n">
-        <v>-17.59656652360515</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L661" t="n">
         <v>2814.2</v>
@@ -33990,7 +34012,7 @@
         <v>3078</v>
       </c>
       <c r="K662" t="n">
-        <v>-17.24137931034483</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L662" t="n">
         <v>2815</v>
@@ -34041,7 +34063,7 @@
         <v>3078</v>
       </c>
       <c r="K663" t="n">
-        <v>-17.24137931034483</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L663" t="n">
         <v>2815.8</v>
@@ -34092,7 +34114,7 @@
         <v>3092</v>
       </c>
       <c r="K664" t="n">
-        <v>-6.779661016949152</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L664" t="n">
         <v>2820.2</v>
@@ -34143,7 +34165,7 @@
         <v>3107</v>
       </c>
       <c r="K665" t="n">
-        <v>-5.172413793103448</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L665" t="n">
         <v>2817.7</v>
@@ -34194,7 +34216,7 @@
         <v>3113</v>
       </c>
       <c r="K666" t="n">
-        <v>9.95260663507109</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L666" t="n">
         <v>2818.2</v>
@@ -34245,7 +34267,7 @@
         <v>3114</v>
       </c>
       <c r="K667" t="n">
-        <v>21.875</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L667" t="n">
         <v>2818.8</v>
@@ -34296,7 +34318,7 @@
         <v>3119</v>
       </c>
       <c r="K668" t="n">
-        <v>10.1123595505618</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L668" t="n">
         <v>2818.2</v>
@@ -34347,7 +34369,7 @@
         <v>3129</v>
       </c>
       <c r="K669" t="n">
-        <v>18.68131868131868</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="L669" t="n">
         <v>2819.1</v>
@@ -34398,7 +34420,7 @@
         <v>3129</v>
       </c>
       <c r="K670" t="n">
-        <v>12.42603550295858</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L670" t="n">
         <v>2819.9</v>
@@ -34449,7 +34471,7 @@
         <v>3133</v>
       </c>
       <c r="K671" t="n">
-        <v>13.45029239766082</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L671" t="n">
         <v>2821.2</v>
@@ -34500,7 +34522,7 @@
         <v>3133</v>
       </c>
       <c r="K672" t="n">
-        <v>13.45029239766082</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L672" t="n">
         <v>2822.7</v>
@@ -34551,7 +34573,7 @@
         <v>3136</v>
       </c>
       <c r="K673" t="n">
-        <v>14.94252873563219</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L673" t="n">
         <v>2824.5</v>
@@ -34602,7 +34624,7 @@
         <v>3136</v>
       </c>
       <c r="K674" t="n">
-        <v>31.57894736842105</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L674" t="n">
         <v>2824.9</v>
@@ -34653,7 +34675,7 @@
         <v>3136</v>
       </c>
       <c r="K675" t="n">
-        <v>-6.122448979591836</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L675" t="n">
         <v>2826.8</v>
@@ -34704,7 +34726,7 @@
         <v>3139</v>
       </c>
       <c r="K676" t="n">
-        <v>19.48051948051948</v>
+        <v>36</v>
       </c>
       <c r="L676" t="n">
         <v>2827.8</v>
@@ -34755,7 +34777,7 @@
         <v>3139</v>
       </c>
       <c r="K677" t="n">
-        <v>19.48051948051948</v>
+        <v>70</v>
       </c>
       <c r="L677" t="n">
         <v>2828.7</v>
@@ -34806,7 +34828,7 @@
         <v>3139</v>
       </c>
       <c r="K678" t="n">
-        <v>11.42857142857143</v>
+        <v>40</v>
       </c>
       <c r="L678" t="n">
         <v>2830.1</v>
@@ -34857,7 +34879,7 @@
         <v>3142</v>
       </c>
       <c r="K679" t="n">
-        <v>14.70588235294118</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L679" t="n">
         <v>2830.2</v>
@@ -34908,7 +34930,7 @@
         <v>3154</v>
       </c>
       <c r="K680" t="n">
-        <v>-3.79746835443038</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L680" t="n">
         <v>2829.1</v>
@@ -34959,7 +34981,7 @@
         <v>3161</v>
       </c>
       <c r="K681" t="n">
-        <v>5.88235294117647</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L681" t="n">
         <v>2828.3</v>
@@ -35010,7 +35032,7 @@
         <v>3164</v>
       </c>
       <c r="K682" t="n">
-        <v>4.651162790697675</v>
+        <v>-50</v>
       </c>
       <c r="L682" t="n">
         <v>2827.2</v>
@@ -35061,7 +35083,7 @@
         <v>3170</v>
       </c>
       <c r="K683" t="n">
-        <v>10.8695652173913</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L683" t="n">
         <v>2826.4</v>
@@ -35112,7 +35134,7 @@
         <v>3170</v>
       </c>
       <c r="K684" t="n">
-        <v>-5.128205128205128</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L684" t="n">
         <v>2825.6</v>
@@ -35163,7 +35185,7 @@
         <v>3171</v>
       </c>
       <c r="K685" t="n">
-        <v>15.625</v>
+        <v>-18.75</v>
       </c>
       <c r="L685" t="n">
         <v>2824.7</v>
@@ -35214,7 +35236,7 @@
         <v>3176</v>
       </c>
       <c r="K686" t="n">
-        <v>14.28571428571428</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L686" t="n">
         <v>2824.6</v>
@@ -35265,7 +35287,7 @@
         <v>3181</v>
       </c>
       <c r="K687" t="n">
-        <v>4.477611940298507</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L687" t="n">
         <v>2824</v>
@@ -35316,7 +35338,7 @@
         <v>3185</v>
       </c>
       <c r="K688" t="n">
-        <v>6.060606060606061</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L688" t="n">
         <v>2823</v>
@@ -35367,7 +35389,7 @@
         <v>3185</v>
       </c>
       <c r="K689" t="n">
-        <v>-10.71428571428571</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L689" t="n">
         <v>2822.3</v>
@@ -35418,7 +35440,7 @@
         <v>3189</v>
       </c>
       <c r="K690" t="n">
-        <v>-3.333333333333333</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L690" t="n">
         <v>2823.2</v>
@@ -35469,7 +35491,7 @@
         <v>3190</v>
       </c>
       <c r="K691" t="n">
-        <v>-8.771929824561402</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L691" t="n">
         <v>2823.5</v>

--- a/BackTest/2019-10-18 BackTest LINK.xlsx
+++ b/BackTest/2019-10-18 BackTest LINK.xlsx
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
@@ -23131,184 +23131,182 @@
         <v>2882.616666666667</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
       </c>
-      <c r="J650" t="n">
-        <v>2792</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>2807</v>
+      </c>
+      <c r="C651" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D651" t="n">
+        <v>2807</v>
+      </c>
+      <c r="E651" t="n">
+        <v>2807</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2.8407</v>
+      </c>
+      <c r="G651" t="n">
+        <v>2880.683333333333</v>
+      </c>
+      <c r="H651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" t="n">
+        <v>2805</v>
+      </c>
+      <c r="K651" t="n">
+        <v>2805</v>
+      </c>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>2807</v>
+      </c>
+      <c r="C652" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D652" t="n">
+        <v>2808</v>
+      </c>
+      <c r="E652" t="n">
+        <v>2807</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1707.0625</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2878.8</v>
+      </c>
+      <c r="H652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+      <c r="J652" t="n">
+        <v>2807</v>
+      </c>
+      <c r="K652" t="n">
+        <v>2805</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C653" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E653" t="n">
+        <v>2807</v>
+      </c>
+      <c r="F653" t="n">
+        <v>201.9464</v>
+      </c>
+      <c r="G653" t="n">
+        <v>2876.883333333333</v>
+      </c>
+      <c r="H653" t="n">
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" t="n">
+        <v>2807</v>
+      </c>
+      <c r="K653" t="n">
+        <v>2805</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>2808</v>
+      </c>
+      <c r="C654" t="n">
+        <v>2785</v>
+      </c>
+      <c r="D654" t="n">
+        <v>2808</v>
+      </c>
+      <c r="E654" t="n">
+        <v>2785</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1239.0001</v>
+      </c>
+      <c r="G654" t="n">
+        <v>2874.55</v>
+      </c>
+      <c r="H654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="n">
+        <v>2807</v>
+      </c>
+      <c r="K654" t="n">
+        <v>2805</v>
+      </c>
+      <c r="L654" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M650" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>2807</v>
-      </c>
-      <c r="C651" t="n">
-        <v>2807</v>
-      </c>
-      <c r="D651" t="n">
-        <v>2807</v>
-      </c>
-      <c r="E651" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F651" t="n">
-        <v>2.8407</v>
-      </c>
-      <c r="G651" t="n">
-        <v>2880.683333333333</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>0</v>
-      </c>
-      <c r="J651" t="n">
-        <v>2807</v>
-      </c>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M651" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>2807</v>
-      </c>
-      <c r="C652" t="n">
-        <v>2807</v>
-      </c>
-      <c r="D652" t="n">
-        <v>2808</v>
-      </c>
-      <c r="E652" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F652" t="n">
-        <v>1707.0625</v>
-      </c>
-      <c r="G652" t="n">
-        <v>2878.8</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>0</v>
-      </c>
-      <c r="J652" t="n">
-        <v>2807</v>
-      </c>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M652" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>2819</v>
-      </c>
-      <c r="C653" t="n">
-        <v>2807</v>
-      </c>
-      <c r="D653" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E653" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F653" t="n">
-        <v>201.9464</v>
-      </c>
-      <c r="G653" t="n">
-        <v>2876.883333333333</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>0</v>
-      </c>
-      <c r="J653" t="n">
-        <v>2819</v>
-      </c>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M653" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>2808</v>
-      </c>
-      <c r="C654" t="n">
-        <v>2785</v>
-      </c>
-      <c r="D654" t="n">
-        <v>2808</v>
-      </c>
-      <c r="E654" t="n">
-        <v>2785</v>
-      </c>
-      <c r="F654" t="n">
-        <v>1239.0001</v>
-      </c>
-      <c r="G654" t="n">
-        <v>2874.55</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0</v>
-      </c>
-      <c r="J654" t="n">
-        <v>2808</v>
-      </c>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23342,9 +23340,11 @@
         <v>0</v>
       </c>
       <c r="J655" t="n">
-        <v>2799</v>
-      </c>
-      <c r="K655" t="inlineStr"/>
+        <v>2785</v>
+      </c>
+      <c r="K655" t="n">
+        <v>2805</v>
+      </c>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23383,9 +23383,11 @@
         <v>0</v>
       </c>
       <c r="J656" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K656" t="inlineStr"/>
+        <v>2839</v>
+      </c>
+      <c r="K656" t="n">
+        <v>2805</v>
+      </c>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23418,15 +23420,15 @@
         <v>2869.583333333333</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
       </c>
-      <c r="J657" t="n">
-        <v>2815</v>
-      </c>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>2805</v>
+      </c>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23459,15 +23461,15 @@
         <v>2867.9</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
       </c>
-      <c r="J658" t="n">
-        <v>2809</v>
-      </c>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>2805</v>
+      </c>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23500,15 +23502,15 @@
         <v>2866.133333333333</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
       </c>
-      <c r="J659" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>2805</v>
+      </c>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23541,15 +23543,15 @@
         <v>2864.45</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
       </c>
-      <c r="J660" t="n">
-        <v>2818</v>
-      </c>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>2805</v>
+      </c>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23582,15 +23584,15 @@
         <v>2862.75</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
       </c>
-      <c r="J661" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>2805</v>
+      </c>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23623,15 +23625,15 @@
         <v>2861.05</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
       </c>
-      <c r="J662" t="n">
-        <v>2810</v>
-      </c>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>2805</v>
+      </c>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23664,15 +23666,15 @@
         <v>2859.35</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
       </c>
-      <c r="J663" t="n">
-        <v>2815</v>
-      </c>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>2805</v>
+      </c>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23705,15 +23707,15 @@
         <v>2857.883333333333</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
-      <c r="J664" t="n">
-        <v>2815</v>
-      </c>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>2805</v>
+      </c>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23746,15 +23748,15 @@
         <v>2856.166666666667</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="n">
-        <v>2820</v>
-      </c>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>2805</v>
+      </c>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23787,15 +23789,15 @@
         <v>2854.583333333333</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>2814</v>
-      </c>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>2805</v>
+      </c>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23828,15 +23830,15 @@
         <v>2853.016666666667</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
-        <v>2819</v>
-      </c>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>2805</v>
+      </c>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23869,15 +23871,15 @@
         <v>2851.483333333333</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>2822</v>
-      </c>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>2805</v>
+      </c>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23910,15 +23912,15 @@
         <v>2850.1</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>2825</v>
-      </c>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>2805</v>
+      </c>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23951,15 +23953,15 @@
         <v>2848.55</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>2825</v>
-      </c>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>2805</v>
+      </c>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-18 BackTest LINK.xlsx
+++ b/BackTest/2019-10-18 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>21483.2477</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>24033.89788995402</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2816</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>27551.78428995402</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2827</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2816</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>26992.79498362222</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2828</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2816</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>26992.79498362222</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>26534.42108362222</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>26491.40198362222</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2820</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,19 +715,11 @@
         <v>27569.95028581924</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2822</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -802,19 +748,11 @@
         <v>26882.04008581924</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>26882.04008581924</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2802</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,19 +814,11 @@
         <v>26439.88578581924</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2802</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -925,19 +847,11 @@
         <v>26317.35088581924</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2800</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -966,19 +880,11 @@
         <v>26349.35908581924</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2798</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1007,19 +913,11 @@
         <v>26407.49198581924</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2804</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1048,19 +946,11 @@
         <v>26407.49198581924</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2805</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1089,19 +979,11 @@
         <v>26525.20668581924</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2805</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1130,19 +1012,11 @@
         <v>23980.93308581924</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2806</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1171,19 +1045,11 @@
         <v>23986.59768581924</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2793</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1212,19 +1078,11 @@
         <v>23253.54788581924</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2805</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1253,19 +1111,11 @@
         <v>23253.54788581924</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2793</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1294,19 +1144,11 @@
         <v>23301.35698581924</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2793</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1335,19 +1177,11 @@
         <v>23118.33458581924</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2794</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1379,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1613,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1652,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1691,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1847,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1964,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2663,19 +2299,13 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2821</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.016978021978022</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2735,7 +2365,7 @@
         <v>-6513.976385750771</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2768,7 +2398,7 @@
         <v>-3279.200685750771</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2801,7 +2431,7 @@
         <v>-10032.23208575077</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2834,7 +2464,7 @@
         <v>-14918.01238575077</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2867,7 +2497,7 @@
         <v>-15692.81178575077</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2900,7 +2530,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2933,7 +2563,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3065,7 +2695,7 @@
         <v>-15506.95628575077</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3362,7 +2992,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3395,7 +3025,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3428,7 +3058,7 @@
         <v>-8428.496985750773</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3461,7 +3091,7 @@
         <v>-9110.023685750773</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3725,7 +3355,7 @@
         <v>-14291.99448575077</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3890,7 +3520,7 @@
         <v>-17003.54418575078</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3923,7 +3553,7 @@
         <v>-17301.95068575078</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3956,7 +3586,7 @@
         <v>-15825.88048575078</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3989,7 +3619,7 @@
         <v>-15824.22758575078</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4022,7 +3652,7 @@
         <v>-15602.70768575078</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4088,7 +3718,7 @@
         <v>-13857.63338575078</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4154,7 +3784,7 @@
         <v>-10547.82738575078</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4187,7 +3817,7 @@
         <v>-10737.22738575078</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4253,7 +3883,7 @@
         <v>-12432.37653672031</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -6299,7 +5929,7 @@
         <v>-58839.10347962343</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6332,7 +5962,7 @@
         <v>-58821.7363382549</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6365,7 +5995,7 @@
         <v>-58949.8586382549</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6398,7 +6028,7 @@
         <v>-58998.95213825491</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6530,7 +6160,7 @@
         <v>-65063.83191767076</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6563,7 +6193,7 @@
         <v>-65242.22611767076</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6596,7 +6226,7 @@
         <v>-64834.27931767076</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6629,7 +6259,7 @@
         <v>-64953.97321767076</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6761,7 +6391,7 @@
         <v>-65669.43746517238</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6794,7 +6424,7 @@
         <v>-65257.86626517238</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6827,7 +6457,7 @@
         <v>-65357.67196517238</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6860,7 +6490,7 @@
         <v>-65014.67196517238</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6893,7 +6523,7 @@
         <v>-65051.48206517238</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6926,7 +6556,7 @@
         <v>-63389.10676517238</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6959,7 +6589,7 @@
         <v>-62064.20606517238</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6992,7 +6622,7 @@
         <v>-62064.20606517238</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7025,7 +6655,7 @@
         <v>-61688.30236517238</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7058,7 +6688,7 @@
         <v>-61688.30236517238</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7091,7 +6721,7 @@
         <v>-61590.61846517237</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7124,7 +6754,7 @@
         <v>-61019.53846517237</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7157,7 +6787,7 @@
         <v>-56562.77156517237</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7190,7 +6820,7 @@
         <v>-56562.77156517237</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7223,7 +6853,7 @@
         <v>-57594.93446517237</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7256,7 +6886,7 @@
         <v>-54629.06656517238</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7289,7 +6919,7 @@
         <v>-56290.89526517237</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7322,7 +6952,7 @@
         <v>-55661.67396517238</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7421,7 +7051,7 @@
         <v>-53987.42556517238</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7454,7 +7084,7 @@
         <v>-58276.54576517238</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7487,7 +7117,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7520,7 +7150,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7553,7 +7183,7 @@
         <v>-58976.71466517238</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7586,7 +7216,7 @@
         <v>-55728.55976517238</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7619,7 +7249,7 @@
         <v>-55328.09756517238</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7652,7 +7282,7 @@
         <v>-49445.43206517238</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7685,7 +7315,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7718,7 +7348,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7751,7 +7381,7 @@
         <v>-93992.12996517238</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7784,7 +7414,7 @@
         <v>-96302.00896517238</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7817,7 +7447,7 @@
         <v>-96301.79236517238</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7850,7 +7480,7 @@
         <v>-99549.31554382406</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7883,7 +7513,7 @@
         <v>-96316.28234382406</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7916,7 +7546,7 @@
         <v>-96364.10904382406</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7949,7 +7579,7 @@
         <v>-96364.10904382406</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7982,7 +7612,7 @@
         <v>-96664.10904382406</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8015,7 +7645,7 @@
         <v>-95456.27224382406</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8048,7 +7678,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8081,7 +7711,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8147,7 +7777,7 @@
         <v>-93347.98774382407</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8246,7 +7876,7 @@
         <v>-94325.47904382406</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8279,7 +7909,7 @@
         <v>-95005.30184382405</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8312,7 +7942,7 @@
         <v>-94943.32034382406</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8345,7 +7975,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8378,7 +8008,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8411,7 +8041,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8444,7 +8074,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8477,7 +8107,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8510,7 +8140,7 @@
         <v>-95831.00028917646</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8543,7 +8173,7 @@
         <v>-95660.00028917646</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8609,7 +8239,7 @@
         <v>-95879.82206882881</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8642,7 +8272,7 @@
         <v>-96151.48606882882</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8840,7 +8470,7 @@
         <v>-98413.06466882881</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8873,7 +8503,7 @@
         <v>-98220.33876882881</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8906,7 +8536,7 @@
         <v>-97967.1184688288</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8939,7 +8569,7 @@
         <v>-98027.8236688288</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8972,7 +8602,7 @@
         <v>-98115.4476688288</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9005,7 +8635,7 @@
         <v>-99734.01926882879</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9038,7 +8668,7 @@
         <v>-100234.0192688288</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9071,7 +8701,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9104,7 +8734,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9137,7 +8767,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9170,7 +8800,7 @@
         <v>-100503.7930688288</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9203,7 +8833,7 @@
         <v>-100512.5760688288</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9236,7 +8866,7 @@
         <v>-100663.5067688288</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9401,7 +9031,7 @@
         <v>-102852.7656688288</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -13229,7 +12859,7 @@
         <v>-100105.3894597973</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13262,7 +12892,7 @@
         <v>-100326.5835597973</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13295,7 +12925,7 @@
         <v>-100300.2623499499</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13328,7 +12958,7 @@
         <v>-100300.2623499499</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13361,7 +12991,7 @@
         <v>-100300.2623499499</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13394,7 +13024,7 @@
         <v>-100351.0512499499</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13724,7 +13354,7 @@
         <v>-99602.90484994989</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13757,7 +13387,7 @@
         <v>-99590.51204994989</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13790,7 +13420,7 @@
         <v>-99581.25874994989</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13823,7 +13453,7 @@
         <v>-99586.26604994989</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13856,7 +13486,7 @@
         <v>-99586.26604994989</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13889,7 +13519,7 @@
         <v>-100228.2649499499</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14021,7 +13651,7 @@
         <v>-100285.5616499499</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14054,7 +13684,7 @@
         <v>-100307.4578499499</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14087,7 +13717,7 @@
         <v>-100307.4578499499</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14120,7 +13750,7 @@
         <v>-100299.0347499499</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14153,7 +13783,7 @@
         <v>-100351.5583499499</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14186,7 +13816,7 @@
         <v>-100420.4583499499</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14252,7 +13882,7 @@
         <v>-99924.3406499499</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14285,7 +13915,7 @@
         <v>-99926.94254994989</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14318,7 +13948,7 @@
         <v>-98435.93324994989</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14351,7 +13981,7 @@
         <v>-96941.98634994989</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15803,7 +15433,7 @@
         <v>-96848.78924994993</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15869,7 +15499,7 @@
         <v>-96816.32734994993</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16001,7 +15631,7 @@
         <v>-96490.79024994993</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16100,7 +15730,7 @@
         <v>-96457.17844994993</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16133,7 +15763,7 @@
         <v>-96570.65284994994</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16166,7 +15796,7 @@
         <v>-96565.76324994995</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16199,7 +15829,7 @@
         <v>-96559.32704994995</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16232,7 +15862,7 @@
         <v>-96617.92704994995</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16265,7 +15895,7 @@
         <v>-96870.60804994995</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16298,7 +15928,7 @@
         <v>-96960.60804994995</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16331,7 +15961,7 @@
         <v>-96978.60804994995</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16397,7 +16027,7 @@
         <v>-97762.43934994996</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16430,7 +16060,7 @@
         <v>-97657.55464994996</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16496,7 +16126,7 @@
         <v>-138295.61784995</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18938,7 +18568,7 @@
         <v>-158264.4080499499</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18971,7 +18601,7 @@
         <v>-158264.4080499499</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19004,7 +18634,7 @@
         <v>-156707.5832742325</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19037,7 +18667,7 @@
         <v>-156762.9470742324</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19070,7 +18700,7 @@
         <v>-155521.2441742324</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -23921,11 +23551,17 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2855</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +23590,17 @@
         <v>-166591.4122144952</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>2855</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23987,11 +23629,17 @@
         <v>-168176.1754144952</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>2845</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24020,11 +23668,17 @@
         <v>-174807.0215144952</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2826</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24053,11 +23707,17 @@
         <v>-182421.6528144952</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2799</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24086,11 +23746,17 @@
         <v>-172978.9104144952</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>2779</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24119,11 +23785,17 @@
         <v>-175950.1169144952</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>2798</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24152,11 +23824,17 @@
         <v>-174320.6704144953</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>2792</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24185,11 +23863,17 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>2805</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24218,11 +23902,17 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>2807</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24251,11 +23941,17 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>2807</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24284,11 +23980,17 @@
         <v>-175556.8298144953</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>2807</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24317,11 +24019,17 @@
         <v>-171113.4326839211</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2785</v>
+      </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24350,11 +24058,17 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>2839</v>
+      </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +24097,17 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>2815</v>
+      </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24416,11 +24136,17 @@
         <v>-176607.8208839211</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>2815</v>
+      </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24449,11 +24175,17 @@
         <v>-177323.1424839211</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>2822</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24482,11 +24214,17 @@
         <v>-177261.0424839211</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>2817</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24515,11 +24253,17 @@
         <v>-177380.0629839211</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2818</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24548,11 +24292,17 @@
         <v>-186238.9438839211</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>2817</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24581,11 +24331,17 @@
         <v>-186238.9438839211</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>2815</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24614,11 +24370,17 @@
         <v>-184586.0390839211</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>2815</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24647,11 +24409,17 @@
         <v>-185525.5172839211</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>2829</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24680,11 +24448,17 @@
         <v>-185518.5434839211</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>2814</v>
+      </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24713,11 +24487,17 @@
         <v>-184936.4911839211</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>2820</v>
+      </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24746,11 +24526,17 @@
         <v>-185101.0911839211</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>2821</v>
+      </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24779,11 +24565,17 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2816</v>
+      </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24816,7 +24608,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24849,7 +24645,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24882,7 +24682,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24915,7 +24719,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24948,7 +24756,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24977,11 +24789,17 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2833</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25010,11 +24828,17 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2833</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25043,11 +24867,17 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2830</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25076,11 +24906,17 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2830</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25109,11 +24945,17 @@
         <v>-183859.2012839211</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2830</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25142,17 +24984,23 @@
         <v>-184940.9053839211</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2827</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
       <c r="M739" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LINK.xlsx
+++ b/BackTest/2019-10-18 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2266,7 +2266,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6513.976385750771</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3279.200685750771</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10032.23208575077</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-14918.01238575077</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-15692.81178575077</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-16094.58198575077</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17781.43528575077</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-17038.78428575077</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-15506.95628575077</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-15648.29988575077</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-15790.99838575077</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5952.769185750773</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9538.528785750774</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-8428.496985750773</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9110.023685750773</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-14291.99448575077</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-17003.54418575078</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-17301.95068575078</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-15825.88048575078</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15824.22758575078</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15602.70768575078</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-13857.63338575078</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10547.82738575078</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-10737.22738575078</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-58976.71466517238</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-55728.55976517238</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-55328.09756517238</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-49445.43206517238</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-93992.12996517238</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-96302.00896517238</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-96301.79236517238</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-99549.31554382406</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-96316.28234382406</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-96364.10904382406</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-96364.10904382406</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-96664.10904382406</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-95456.27224382406</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-93347.98774382407</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-94325.47904382406</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-95005.30184382405</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-94943.32034382406</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-95831.00028917646</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-95660.00028917646</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-95879.82206882881</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-96151.48606882882</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-98413.06466882881</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-98220.33876882881</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-97967.1184688288</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-98027.8236688288</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-98115.4476688288</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-99734.01926882879</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-100234.0192688288</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-99320.26426882879</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-100503.7930688288</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-100512.5760688288</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-100663.5067688288</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -23551,17 +23551,11 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>2855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23590,17 +23584,11 @@
         <v>-166591.4122144952</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>2855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23629,17 +23617,11 @@
         <v>-168176.1754144952</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>2845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23668,17 +23650,11 @@
         <v>-174807.0215144952</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>2826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23707,17 +23683,11 @@
         <v>-182421.6528144952</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23746,17 +23716,11 @@
         <v>-172978.9104144952</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>2779</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23785,17 +23749,11 @@
         <v>-175950.1169144952</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>2798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23824,17 +23782,11 @@
         <v>-174320.6704144953</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>2792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23863,17 +23815,11 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>2805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23902,17 +23848,11 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>2807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23941,17 +23881,11 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>2807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23980,17 +23914,11 @@
         <v>-175556.8298144953</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>2807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24019,17 +23947,11 @@
         <v>-171113.4326839211</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>2785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24058,17 +23980,11 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>2839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24097,17 +24013,11 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>2815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24136,17 +24046,11 @@
         <v>-176607.8208839211</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>2815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24183,7 +24087,7 @@
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L718" t="n">
@@ -24526,11 +24430,9 @@
         <v>-185101.0911839211</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>2821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24565,11 +24467,9 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>2816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24789,11 +24689,9 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>2833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -24828,11 +24726,9 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>2833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24867,11 +24763,9 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>2830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -24906,11 +24800,9 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>2830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -24945,11 +24837,9 @@
         <v>-183859.2012839211</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>2830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -24984,11 +24874,9 @@
         <v>-184940.9053839211</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>2827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25001,6 +24889,6 @@
       <c r="M739" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LINK.xlsx
+++ b/BackTest/2019-10-18 BackTest LINK.xlsx
@@ -2266,7 +2266,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6513.976385750771</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3279.200685750771</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10032.23208575077</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-14918.01238575077</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-15692.81178575077</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-16094.58198575077</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17781.43528575077</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-17038.78428575077</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-15506.95628575077</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-15648.29988575077</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-15790.99838575077</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5952.769185750773</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-9538.528785750774</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-56562.77156517237</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-57594.93446517237</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-54629.06656517238</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-56290.89526517237</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-55661.67396517238</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-55857.92236517237</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-55686.84186517238</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-53987.42556517238</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-58276.54576517238</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-58976.71466517238</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-55728.55976517238</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-55328.09756517238</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-49445.43206517238</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-93992.12996517238</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-96302.00896517238</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-96301.79236517238</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-99549.31554382406</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-96316.28234382406</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -20515,10 +20515,14 @@
         <v>-155753.7429252195</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>2926</v>
+      </c>
+      <c r="J610" t="n">
+        <v>2926</v>
+      </c>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
@@ -20551,8 +20555,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20591,19 @@
         <v>-155753.7429252195</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>2926</v>
+      </c>
+      <c r="J612" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +20635,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +20674,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +20713,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +20752,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +20791,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20782,8 +20830,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +20869,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +20908,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +20947,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +20986,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20947,8 +21025,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20980,8 +21064,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21013,8 +21103,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +21142,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21079,8 +21181,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21112,8 +21220,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +21259,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21178,8 +21298,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21211,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21244,8 +21376,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21415,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21454,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +21493,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +21532,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +21571,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +21610,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +21649,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +21688,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +21727,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21574,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +21805,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +21844,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +21883,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +21922,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +21961,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +22000,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +22039,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +22078,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21871,8 +22117,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +22156,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21937,8 +22195,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21970,8 +22234,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22003,8 +22273,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22036,8 +22312,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22069,8 +22351,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22102,8 +22390,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22135,8 +22429,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22168,8 +22468,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22201,8 +22507,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22234,8 +22546,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22267,8 +22585,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22300,8 +22624,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22333,8 +22663,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22366,8 +22702,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22399,8 +22741,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22432,8 +22780,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22465,8 +22819,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22498,8 +22858,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22531,8 +22897,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22564,8 +22936,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22597,8 +22975,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22630,8 +23014,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22663,8 +23053,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +23092,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22729,8 +23131,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22762,8 +23170,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +23209,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22828,8 +23248,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22858,11 +23284,19 @@
         <v>-158140.2900252194</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>2880</v>
+      </c>
+      <c r="J681" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23325,19 @@
         <v>-155353.8873252194</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>2872</v>
+      </c>
+      <c r="J682" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23366,19 @@
         <v>-151444.2080252194</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>2873</v>
+      </c>
+      <c r="J683" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23407,19 @@
         <v>-151857.8587252194</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>2886</v>
+      </c>
+      <c r="J684" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22993,8 +23451,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23487,19 @@
         <v>-150243.0728144952</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>2867</v>
+      </c>
+      <c r="J686" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23528,19 @@
         <v>-150243.0728144952</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>2871</v>
+      </c>
+      <c r="J687" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23569,19 @@
         <v>-150709.4799144952</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>2871</v>
+      </c>
+      <c r="J688" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23610,19 @@
         <v>-150710.7792144952</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>2860</v>
+      </c>
+      <c r="J689" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23651,19 @@
         <v>-151452.1916144952</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>2856</v>
+      </c>
+      <c r="J690" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23692,19 @@
         <v>-151452.1916144952</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>2853</v>
+      </c>
+      <c r="J691" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23733,19 @@
         <v>-153942.8062144952</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>2853</v>
+      </c>
+      <c r="J692" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23774,19 @@
         <v>-167088.0717144952</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>2849</v>
+      </c>
+      <c r="J693" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23815,19 @@
         <v>-165916.9883144952</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>2847</v>
+      </c>
+      <c r="J694" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23856,19 @@
         <v>-166114.2317144952</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>2860</v>
+      </c>
+      <c r="J695" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23897,19 @@
         <v>-165909.9005144952</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>2855</v>
+      </c>
+      <c r="J696" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23389,8 +23941,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23422,8 +23980,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23455,8 +24019,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +24055,19 @@
         <v>-166419.1239144953</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>2858</v>
+      </c>
+      <c r="J700" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +24096,19 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>2858</v>
+      </c>
+      <c r="J701" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +24137,19 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2855</v>
+      </c>
+      <c r="J702" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +24178,19 @@
         <v>-166591.4122144952</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>2855</v>
+      </c>
+      <c r="J703" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +24219,19 @@
         <v>-168176.1754144952</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>2845</v>
+      </c>
+      <c r="J704" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +24260,19 @@
         <v>-174807.0215144952</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2826</v>
+      </c>
+      <c r="J705" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +24301,19 @@
         <v>-182421.6528144952</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2799</v>
+      </c>
+      <c r="J706" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +24342,19 @@
         <v>-172978.9104144952</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>2779</v>
+      </c>
+      <c r="J707" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +24383,19 @@
         <v>-175950.1169144952</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>2798</v>
+      </c>
+      <c r="J708" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23782,11 +24424,19 @@
         <v>-174320.6704144953</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>2792</v>
+      </c>
+      <c r="J709" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +24465,19 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>2805</v>
+      </c>
+      <c r="J710" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +24506,19 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>2807</v>
+      </c>
+      <c r="J711" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +24547,19 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>2807</v>
+      </c>
+      <c r="J712" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23914,11 +24588,19 @@
         <v>-175556.8298144953</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>2807</v>
+      </c>
+      <c r="J713" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23947,11 +24629,19 @@
         <v>-171113.4326839211</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>2785</v>
+      </c>
+      <c r="J714" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23980,11 +24670,19 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>2839</v>
+      </c>
+      <c r="J715" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +24711,19 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J716" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24046,11 +24752,19 @@
         <v>-176607.8208839211</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J717" t="n">
+        <v>2926</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24084,10 +24798,12 @@
       <c r="I718" t="n">
         <v>2822</v>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>2926</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L718" t="n">
@@ -24123,7 +24839,9 @@
       <c r="I719" t="n">
         <v>2817</v>
       </c>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>2926</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24162,7 +24880,9 @@
       <c r="I720" t="n">
         <v>2818</v>
       </c>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>2926</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24201,7 +24921,9 @@
       <c r="I721" t="n">
         <v>2817</v>
       </c>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>2926</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24240,7 +24962,9 @@
       <c r="I722" t="n">
         <v>2815</v>
       </c>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>2926</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24279,7 +25003,9 @@
       <c r="I723" t="n">
         <v>2815</v>
       </c>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>2926</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24318,7 +25044,9 @@
       <c r="I724" t="n">
         <v>2829</v>
       </c>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>2926</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24357,7 +25085,9 @@
       <c r="I725" t="n">
         <v>2814</v>
       </c>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>2926</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24396,7 +25126,9 @@
       <c r="I726" t="n">
         <v>2820</v>
       </c>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>2926</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24430,10 +25162,14 @@
         <v>-185101.0911839211</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J727" t="n">
+        <v>2926</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24467,10 +25203,14 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>2816</v>
+      </c>
+      <c r="J728" t="n">
+        <v>2926</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24504,10 +25244,14 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>2826</v>
+      </c>
+      <c r="J729" t="n">
+        <v>2926</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24541,10 +25285,14 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>2826</v>
+      </c>
+      <c r="J730" t="n">
+        <v>2926</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24578,10 +25326,14 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J731" t="n">
+        <v>2926</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24615,10 +25367,14 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J732" t="n">
+        <v>2926</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24652,10 +25408,14 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>2833</v>
+      </c>
+      <c r="J733" t="n">
+        <v>2926</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24689,10 +25449,14 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>2833</v>
+      </c>
+      <c r="J734" t="n">
+        <v>2926</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24726,10 +25490,14 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>2833</v>
+      </c>
+      <c r="J735" t="n">
+        <v>2926</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24763,10 +25531,14 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J736" t="n">
+        <v>2926</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24800,10 +25572,14 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J737" t="n">
+        <v>2926</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24837,10 +25613,14 @@
         <v>-183859.2012839211</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J738" t="n">
+        <v>2926</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24874,10 +25654,14 @@
         <v>-184940.9053839211</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>2827</v>
+      </c>
+      <c r="J739" t="n">
+        <v>2926</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
